--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B46AE7D-0128-4BB9-A491-F76CBEAFA6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14BFC54-48C3-46F9-9640-38272237A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="236">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -961,6 +961,26 @@
   </si>
   <si>
     <t>username：password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FtpUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP網址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款匯款媒體檔傳遞至FTP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FtpAuth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP認證</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1160,7 +1180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1294,9 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1620,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1639,10 +1662,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
@@ -1654,8 +1677,8 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="13" t="s">
         <v>151</v>
       </c>
@@ -1667,10 +1690,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="19" t="s">
         <v>102</v>
       </c>
@@ -1680,10 +1703,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
@@ -1691,10 +1714,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="20"/>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
@@ -1702,10 +1725,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -1713,10 +1736,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>
@@ -2530,7 +2553,7 @@
     </row>
     <row r="45" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
-        <f t="shared" ref="A45:A56" si="4">A44+1</f>
+        <f t="shared" ref="A45:A53" si="4">A44+1</f>
         <v>37</v>
       </c>
       <c r="B45" s="19" t="s">
@@ -2725,52 +2748,55 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="32">
-        <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="22"/>
+      <c r="B54" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="33">
+        <v>100</v>
+      </c>
+      <c r="F54" s="33"/>
+      <c r="G54" s="34" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="32">
-        <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="33">
         <v>100</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="19">
-        <v>6</v>
-      </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="22"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="34" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="32">
-        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>20</v>
@@ -2780,14 +2806,14 @@
       <c r="G56" s="22"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+      <c r="A57" s="32">
         <v>49</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>18</v>
@@ -2799,20 +2825,38 @@
       <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="A58" s="32">
+        <v>50</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
       <c r="G58" s="22"/>
     </row>
-    <row r="59" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="38">
+        <v>51</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="19">
+        <v>6</v>
+      </c>
       <c r="F59" s="19"/>
       <c r="G59" s="22"/>
     </row>
@@ -2825,7 +2869,7 @@
       <c r="F60" s="19"/>
       <c r="G60" s="22"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -2896,6 +2940,24 @@
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2973,10 +3035,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
@@ -2988,8 +3050,8 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
@@ -3001,10 +3063,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="19" t="s">
         <v>102</v>
       </c>
@@ -3014,10 +3076,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
@@ -3025,10 +3087,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="20"/>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
@@ -3036,10 +3098,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -3047,10 +3109,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14BFC54-48C3-46F9-9640-38272237A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0388DD6A-38C0-482A-A7EF-28DCFC313FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="238">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -981,6 +981,14 @@
   </si>
   <si>
     <t>FTP認證</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortPrinPercentLimit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1180,7 +1188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,6 +1311,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1645,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2537,61 +2548,59 @@
         <v>36</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>153</v>
+        <v>236</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>237</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="19">
-        <v>3</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="E44" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <f t="shared" ref="A45:A53" si="4">A44+1</f>
         <v>37</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E45" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="19"/>
-      <c r="G45" s="22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="E46" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F46" s="19"/>
-      <c r="G46" s="22"/>
+      <c r="G46" s="22" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
@@ -2599,41 +2608,39 @@
         <v>39</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="E47" s="19">
-        <v>8</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>132</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="32">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="29">
-        <v>3</v>
-      </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="31" t="s">
-        <v>227</v>
+      <c r="B48" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="19">
+        <v>8</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2642,10 +2649,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>18</v>
@@ -2655,7 +2662,7 @@
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2663,65 +2670,65 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="19">
-        <v>8</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="29">
+        <v>3</v>
+      </c>
+      <c r="F50" s="30"/>
+      <c r="G50" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="B51" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E51" s="29">
-        <v>1</v>
-      </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="19">
+        <v>8</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A52" s="32">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B52" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="33">
-        <v>100</v>
-      </c>
-      <c r="F52" s="33"/>
-      <c r="G52" s="34" t="s">
-        <v>195</v>
+      <c r="B52" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="29">
+        <v>1</v>
+      </c>
+      <c r="F52" s="29"/>
+      <c r="G52" s="35" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2730,20 +2737,20 @@
         <v>45</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="E53" s="33">
         <v>100</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="34" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2751,10 +2758,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="D54" s="33" t="s">
         <v>105</v>
@@ -2764,7 +2771,7 @@
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2772,10 +2779,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D55" s="33" t="s">
         <v>105</v>
@@ -2785,42 +2792,44 @@
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="34" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="32">
         <v>48</v>
       </c>
-      <c r="B56" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="22"/>
+      <c r="B56" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="33">
+        <v>100</v>
+      </c>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="32">
         <v>49</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="19">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="22"/>
     </row>
@@ -2829,15 +2838,17 @@
         <v>50</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="E58" s="19">
+        <v>6</v>
+      </c>
       <c r="F58" s="19"/>
       <c r="G58" s="22"/>
     </row>
@@ -2846,26 +2857,34 @@
         <v>51</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="19">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
+      <c r="A60" s="19">
+        <v>52</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="19">
+        <v>6</v>
+      </c>
       <c r="F60" s="19"/>
       <c r="G60" s="22"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0388DD6A-38C0-482A-A7EF-28DCFC313FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1FFDDF-A537-430B-AD2B-8E34B0AB031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,11 +984,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ShortPrinPercentLimit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>限額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortPrinLimit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1306,14 +1306,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1657,7 +1657,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1673,10 +1673,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
@@ -1688,8 +1688,8 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="13" t="s">
         <v>151</v>
       </c>
@@ -1701,10 +1701,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="19" t="s">
         <v>102</v>
       </c>
@@ -1714,10 +1714,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
@@ -1725,10 +1725,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="20"/>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
@@ -1736,10 +1736,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -1747,10 +1747,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>
@@ -2548,10 +2548,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="39" t="s">
         <v>236</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>237</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>95</v>
@@ -3054,10 +3054,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
@@ -3069,8 +3069,8 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
@@ -3082,10 +3082,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="19" t="s">
         <v>102</v>
       </c>
@@ -3095,10 +3095,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
@@ -3106,10 +3106,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="20"/>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
@@ -3117,10 +3117,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -3128,10 +3128,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1FFDDF-A537-430B-AD2B-8E34B0AB031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083EC97-71EB-4AEF-86C0-A2A074B1148C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="245">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -989,6 +989,34 @@
   </si>
   <si>
     <t>ShortPrinLimit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCIC放款報送聯絡人電話</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCIC放款報送聯絡人姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例格式:02-23895858#7279</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/3/16新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合聯徵格式,最多4個中文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicEmpName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicEmpTel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1188,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,9 +1330,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1654,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1673,10 +1698,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
@@ -1688,8 +1713,8 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="13" t="s">
         <v>151</v>
       </c>
@@ -1701,10 +1726,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="19" t="s">
         <v>102</v>
       </c>
@@ -1714,10 +1739,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
@@ -1725,10 +1750,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="20"/>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
@@ -1736,10 +1761,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -1747,10 +1772,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>
@@ -2550,7 +2575,7 @@
       <c r="B44" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="38" t="s">
         <v>236</v>
       </c>
       <c r="D44" s="19" t="s">
@@ -2643,7 +2668,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -2665,7 +2690,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -2687,7 +2712,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -2709,7 +2734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A52" s="32">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -2731,7 +2756,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="32">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -2753,7 +2778,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="32">
         <v>46</v>
       </c>
@@ -2774,7 +2799,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="32">
         <v>47</v>
       </c>
@@ -2795,7 +2820,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="32">
         <v>48</v>
       </c>
@@ -2816,51 +2841,63 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="32">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="29">
         <v>49</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="33">
+        <v>4</v>
+      </c>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="29">
+        <v>50</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="33">
+        <v>16</v>
+      </c>
+      <c r="F58" s="33"/>
+      <c r="G58" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="32">
+        <v>51</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="32">
-        <v>50</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="19">
-        <v>6</v>
-      </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="38">
-        <v>51</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>20</v>
@@ -2869,15 +2906,15 @@
       <c r="F59" s="19"/>
       <c r="G59" s="22"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="19">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="32">
         <v>52</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>18</v>
@@ -2888,25 +2925,43 @@
       <c r="F60" s="19"/>
       <c r="G60" s="22"/>
     </row>
-    <row r="61" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="32">
+        <v>53</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="22"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="32">
+        <v>54</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="19">
+        <v>6</v>
+      </c>
       <c r="F62" s="19"/>
       <c r="G62" s="22"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -2915,7 +2970,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="22"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -2977,6 +3032,24 @@
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3054,10 +3127,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
@@ -3069,8 +3142,8 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
@@ -3082,10 +3155,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="19" t="s">
         <v>102</v>
       </c>
@@ -3095,10 +3168,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
@@ -3106,10 +3179,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="20"/>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
@@ -3117,10 +3190,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -3128,10 +3201,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083EC97-71EB-4AEF-86C0-A2A074B1148C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D134C2D0-8E2D-43AD-89C0-482A67E397D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="249">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1017,6 +1017,22 @@
   </si>
   <si>
     <t>JcicEmpTel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoBatchFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/4/12智偉新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動批次記號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1679,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2889,39 +2905,44 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="32">
+    <row r="59" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="29">
         <v>51</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="22"/>
+      <c r="B59" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E59" s="33">
+        <v>1</v>
+      </c>
+      <c r="F59" s="33"/>
+      <c r="G59" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="32">
         <v>52</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="19">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="22"/>
     </row>
@@ -2930,15 +2951,17 @@
         <v>53</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="E61" s="19">
+        <v>6</v>
+      </c>
       <c r="F61" s="19"/>
       <c r="G61" s="22"/>
     </row>
@@ -2947,30 +2970,38 @@
         <v>54</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="19">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="22"/>
     </row>
-    <row r="63" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="32">
+        <v>55</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="19">
+        <v>6</v>
+      </c>
       <c r="F63" s="19"/>
       <c r="G63" s="22"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -3050,6 +3081,15 @@
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="22"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D134C2D0-8E2D-43AD-89C0-482A67E397D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="備份" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -608,15 +607,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>減免金額限額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PreRepayTerms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReduceAmtLimit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1035,11 +1026,19 @@
     <t>自動批次記號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>ReduceAmtLimit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>減免金額限額(主管刷卡)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1359,7 +1358,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1450,23 +1449,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1502,23 +1484,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1694,11 +1659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1732,7 +1697,7 @@
       <c r="A2" s="39"/>
       <c r="B2" s="40"/>
       <c r="C2" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>11</v>
@@ -1861,7 +1826,7 @@
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
@@ -1883,7 +1848,7 @@
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
@@ -1905,7 +1870,7 @@
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1914,10 +1879,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>95</v>
@@ -1927,7 +1892,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1936,10 +1901,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>95</v>
@@ -1949,7 +1914,7 @@
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1958,10 +1923,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>95</v>
@@ -1971,7 +1936,7 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1980,10 +1945,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>95</v>
@@ -1993,7 +1958,7 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2002,10 +1967,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>95</v>
@@ -2015,7 +1980,7 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2024,10 +1989,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>95</v>
@@ -2037,7 +2002,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2046,10 +2011,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>95</v>
@@ -2059,7 +2024,7 @@
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2090,10 +2055,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>95</v>
@@ -2103,7 +2068,7 @@
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2112,10 +2077,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>95</v>
@@ -2125,7 +2090,7 @@
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2134,10 +2099,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>95</v>
@@ -2147,7 +2112,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2156,10 +2121,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>95</v>
@@ -2169,7 +2134,7 @@
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2178,10 +2143,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>95</v>
@@ -2191,7 +2156,7 @@
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2200,10 +2165,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>95</v>
@@ -2213,7 +2178,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2222,10 +2187,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>95</v>
@@ -2235,7 +2200,7 @@
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2256,7 +2221,7 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2277,7 +2242,7 @@
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2300,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2322,7 +2287,7 @@
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2344,7 +2309,7 @@
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2353,20 +2318,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E33" s="28">
         <v>150</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2378,7 +2343,7 @@
         <v>142</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>95</v>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2400,7 +2365,7 @@
         <v>143</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>95</v>
@@ -2410,7 +2375,7 @@
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2422,7 +2387,7 @@
         <v>144</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>95</v>
@@ -2432,7 +2397,7 @@
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2444,7 +2409,7 @@
         <v>145</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>95</v>
@@ -2454,7 +2419,7 @@
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2466,7 +2431,7 @@
         <v>146</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>95</v>
@@ -2476,7 +2441,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2488,7 +2453,7 @@
         <v>147</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>95</v>
@@ -2498,7 +2463,7 @@
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -2507,10 +2472,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>95</v>
@@ -2520,7 +2485,7 @@
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -2529,10 +2494,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>95</v>
@@ -2542,7 +2507,7 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -2551,10 +2516,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>95</v>
@@ -2570,10 +2535,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>95</v>
@@ -2589,10 +2554,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>95</v>
@@ -2607,10 +2572,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>95</v>
@@ -2627,10 +2592,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>95</v>
@@ -2640,7 +2605,7 @@
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2649,13 +2614,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>159</v>
       </c>
       <c r="E47" s="19">
         <v>50</v>
@@ -2669,7 +2634,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>30</v>
@@ -2690,10 +2655,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>18</v>
@@ -2703,7 +2668,7 @@
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2712,10 +2677,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D50" s="29" t="s">
         <v>18</v>
@@ -2725,7 +2690,7 @@
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2756,20 +2721,20 @@
         <v>44</v>
       </c>
       <c r="B52" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>199</v>
       </c>
       <c r="E52" s="29">
         <v>1</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2778,20 +2743,20 @@
         <v>45</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C53" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="33" t="s">
         <v>194</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>196</v>
       </c>
       <c r="E53" s="33">
         <v>100</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2799,10 +2764,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D54" s="33" t="s">
         <v>105</v>
@@ -2812,7 +2777,7 @@
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2820,10 +2785,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D55" s="33" t="s">
         <v>105</v>
@@ -2833,7 +2798,7 @@
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2841,10 +2806,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D56" s="33" t="s">
         <v>105</v>
@@ -2854,7 +2819,7 @@
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2862,23 +2827,23 @@
         <v>49</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E57" s="33">
         <v>4</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2886,10 +2851,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="33" t="s">
         <v>105</v>
@@ -2899,10 +2864,10 @@
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -2910,23 +2875,23 @@
         <v>51</v>
       </c>
       <c r="B59" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>248</v>
-      </c>
       <c r="D59" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E59" s="33">
         <v>1</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3108,7 +3073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
@@ -3148,7 +3113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8049C0F-5897-43B8-BC34-8A9E69994583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="備份" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -927,11 +930,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>L6501維護
-預設值=200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0:系統自動檢核
 1:需人工確認
 2:不檢核(測試套用)</t>
@@ -1031,14 +1029,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>減免金額限額(主管刷卡)</t>
+    <t>減免金額限額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過時需主管刷卡
+L6501維護
+預設值=200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1358,7 +1362,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1449,6 +1453,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1484,6 +1505,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1659,11 +1697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2472,10 +2510,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>247</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>248</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>95</v>
@@ -2485,7 +2523,7 @@
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="22" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -2554,10 +2592,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>95</v>
@@ -2605,7 +2643,7 @@
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2668,7 +2706,7 @@
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2690,7 +2728,7 @@
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2734,7 +2772,7 @@
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2777,7 +2815,7 @@
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2785,10 +2823,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="33" t="s">
         <v>229</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>230</v>
       </c>
       <c r="D55" s="33" t="s">
         <v>105</v>
@@ -2798,7 +2836,7 @@
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2806,10 +2844,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="33" t="s">
         <v>232</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>233</v>
       </c>
       <c r="D56" s="33" t="s">
         <v>105</v>
@@ -2819,7 +2857,7 @@
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2827,10 +2865,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D57" s="33" t="s">
         <v>157</v>
@@ -2840,10 +2878,10 @@
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2851,10 +2889,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D58" s="33" t="s">
         <v>105</v>
@@ -2864,10 +2902,10 @@
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -2875,23 +2913,23 @@
         <v>51</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E59" s="33">
         <v>1</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3073,7 +3111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
@@ -3113,7 +3151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8049C0F-5897-43B8-BC34-8A9E69994583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A518CC-0EB2-4E70-BF0F-957C4F721E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="259">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -953,23 +953,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FtpUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTP網址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>撥款匯款媒體檔傳遞至FTP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FtpAuth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTP認證</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1036,6 +1020,62 @@
     <t>超過時需主管刷卡
 L6501維護
 預設值=200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanMediaFtpUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanMediaFtpAuth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP網址（撥款匯款媒體檔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP帳號（撥款匯款媒體檔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmsFtpUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmsFtpAuth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmsFtpFlag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP網址（簡訊媒體檔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP帳號（簡訊媒體檔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否上傳簡訊媒體檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡訊媒體檔傳遞至FTP（L4710）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/4/25詳惟新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/4/25詳惟修改名稱，原名FtpUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/4/25詳惟修改名稱，原名FtpAuth</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1698,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2510,10 +2550,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>95</v>
@@ -2523,7 +2563,7 @@
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -2592,10 +2632,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>95</v>
@@ -2823,10 +2863,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D55" s="33" t="s">
         <v>105</v>
@@ -2836,7 +2876,10 @@
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2844,10 +2887,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D56" s="33" t="s">
         <v>105</v>
@@ -2859,67 +2902,70 @@
       <c r="G56" s="34" t="s">
         <v>227</v>
       </c>
+      <c r="H56" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="29">
+      <c r="A57" s="32">
         <v>49</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E57" s="33">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="34" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="29">
+      <c r="A58" s="32">
         <v>50</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D58" s="33" t="s">
         <v>105</v>
       </c>
       <c r="E58" s="33">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="34" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="29">
+      <c r="A59" s="32">
         <v>51</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="E59" s="33">
         <v>1</v>
@@ -2929,109 +2975,154 @@
         <v>226</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="32">
+      <c r="A60" s="29">
         <v>52</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="22"/>
+      <c r="B60" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="33">
+        <v>4</v>
+      </c>
+      <c r="F60" s="33"/>
+      <c r="G60" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="32">
+      <c r="A61" s="29">
         <v>53</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="19">
-        <v>6</v>
-      </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="32">
+      <c r="B61" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="33">
+        <v>16</v>
+      </c>
+      <c r="F61" s="33"/>
+      <c r="G61" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="29">
         <v>54</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="22"/>
+      <c r="B62" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" s="33">
+        <v>1</v>
+      </c>
+      <c r="F62" s="33"/>
+      <c r="G62" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="32">
         <v>55</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="19">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="22"/>
     </row>
-    <row r="64" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="32">
+        <v>56</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="19">
+        <v>6</v>
+      </c>
       <c r="F64" s="19"/>
       <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="A65" s="32">
+        <v>57</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
+      <c r="A66" s="32">
+        <v>58</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="19">
+        <v>6</v>
+      </c>
       <c r="F66" s="19"/>
       <c r="G66" s="22"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -3093,6 +3184,33 @@
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="22"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="22"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="22"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A518CC-0EB2-4E70-BF0F-957C4F721E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7517AA3A-498A-43A4-A221-4DD95EC02353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,21 +18,11 @@
     <sheet name="備份" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="262">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1076,6 +1066,20 @@
   </si>
   <si>
     <t>2022/4/25詳惟修改名稱，原名FtpAuth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整批入帳自動收取當月火險費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchFireFeeFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整批入帳自動收取當月火險費
+設為Y時，入帳日等於當月火險費時整批入帳會自動收取
+設為N時，整批入帳檢核訊息[未收當月火險費:xxx,xxx]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1275,7 +1279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,9 +1295,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,16 +1304,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,9 +1321,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1335,9 +1333,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1375,16 +1370,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1398,6 +1387,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1738,1144 +1730,1144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" style="21" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" style="4" customWidth="1"/>
     <col min="9" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="17">
         <v>2</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="19" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <f t="shared" ref="A11" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>1</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <f t="shared" ref="A12:A27" si="1">A11+1</f>
         <v>4</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="17">
         <v>1</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="19" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="D13" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="17">
         <v>2</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="17">
         <v>2</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="19" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="D15" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="17">
         <v>2</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="19" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="17">
         <v>2</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="22" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="D17" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="17">
         <v>2</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="22" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D18" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="17">
         <v>2</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="22" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="19" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="19">
+      <c r="D19" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="17">
         <v>1</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="22" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="19" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="D20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="17">
         <v>1</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="22" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="19">
+      <c r="D21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="17">
         <v>2</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="22" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="D22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="17">
         <v>2</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="19" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="19">
+      <c r="D23" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="17">
         <v>2</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="22" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="19" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="19">
+      <c r="D24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="17">
         <v>2</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="D25" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="17">
         <v>2</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="22" t="s">
+      <c r="F25" s="17"/>
+      <c r="G25" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="19">
+      <c r="D26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="17">
         <v>2</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="22" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="19" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="19">
+      <c r="D27" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="17">
         <v>1</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="22" t="s">
+      <c r="F27" s="17"/>
+      <c r="G27" s="19" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="19">
+      <c r="D28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="17">
         <v>7</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="23" t="s">
+      <c r="F28" s="17"/>
+      <c r="G28" s="20" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>21</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="19">
+      <c r="D29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="17">
         <v>7</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="23" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="20" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>22</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="19">
+      <c r="D30" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="17">
         <v>16</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="17">
         <v>2</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="19" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <f t="shared" ref="A31:A32" si="2">A30+1</f>
         <v>23</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="19">
+      <c r="D31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="17">
         <v>3</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="22" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="19" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="19">
+      <c r="D32" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="17">
         <v>3</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="22" t="s">
+      <c r="F32" s="17"/>
+      <c r="G32" s="19" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="A33" s="17">
         <f>A32+1</f>
         <v>25</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="25">
         <v>150</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="37" t="s">
+      <c r="F33" s="25"/>
+      <c r="G33" s="32" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
+      <c r="A34" s="17">
         <f>A33+1</f>
         <v>26</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="19">
+      <c r="D34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="17">
         <v>3</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="22" t="s">
+      <c r="F34" s="17"/>
+      <c r="G34" s="19" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+      <c r="A35" s="17">
         <f t="shared" ref="A35:A39" si="3">A34+1</f>
         <v>27</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="19">
+      <c r="D35" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="17">
         <v>3</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="22" t="s">
+      <c r="F35" s="17"/>
+      <c r="G35" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+      <c r="A36" s="17">
         <f>A35+1</f>
         <v>28</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="19">
+      <c r="D36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="17">
         <v>3</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="22" t="s">
+      <c r="F36" s="17"/>
+      <c r="G36" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+      <c r="A37" s="17">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="19">
+      <c r="D37" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="17">
         <v>3</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="22" t="s">
+      <c r="F37" s="17"/>
+      <c r="G37" s="19" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
+      <c r="A38" s="17">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="19">
+      <c r="D38" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="17">
         <v>3</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="22" t="s">
+      <c r="F38" s="17"/>
+      <c r="G38" s="19" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="19">
+      <c r="D39" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="17">
         <v>3</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="22" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="19" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19">
+      <c r="A40" s="17">
         <f>A39+1</f>
         <v>32</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="19">
+      <c r="D40" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="17">
         <v>5</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="22" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="19" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+      <c r="A41" s="17">
         <f>A40+1</f>
         <v>33</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="19">
+      <c r="D41" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="17">
         <v>3</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="22" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19">
+      <c r="A42" s="17">
         <f>A41+1</f>
         <v>34</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="19">
+      <c r="D42" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="17">
         <v>3</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
+      <c r="A43" s="17">
         <f>A42+1</f>
         <v>35</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="19">
+      <c r="D43" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="17">
         <v>3</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27">
+      <c r="A44" s="24">
         <v>36</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="27">
+      <c r="D44" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+      <c r="A45" s="17">
         <f t="shared" ref="A45:A53" si="4">A44+1</f>
         <v>37</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="19">
+      <c r="D45" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="17">
         <v>3</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="29">
+      <c r="A46" s="26">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="19">
+      <c r="D46" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="17">
         <v>1</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="22" t="s">
+      <c r="F46" s="17"/>
+      <c r="G46" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="29">
+      <c r="A47" s="26">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="17">
         <v>50</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="22"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="32">
+      <c r="A48" s="29">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="17">
         <v>8</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="29">
+      <c r="A49" s="26">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="26">
         <v>3</v>
       </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="31" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="28" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="29">
+      <c r="A50" s="26">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="26">
         <v>3</v>
       </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="31" t="s">
+      <c r="F50" s="27"/>
+      <c r="G50" s="28" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="29">
+      <c r="A51" s="26">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="17">
         <v>8</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="22" t="s">
+      <c r="F51" s="17"/>
+      <c r="G51" s="19" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="32">
+      <c r="A52" s="29">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="26">
         <v>1</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="35" t="s">
+      <c r="F52" s="26"/>
+      <c r="G52" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="32">
+      <c r="A53" s="29">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E53" s="26">
         <v>100</v>
       </c>
-      <c r="F53" s="33"/>
-      <c r="G53" s="34" t="s">
+      <c r="F53" s="26"/>
+      <c r="G53" s="30" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="32">
+      <c r="A54" s="29">
         <v>46</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E54" s="26">
         <v>100</v>
       </c>
-      <c r="F54" s="33"/>
-      <c r="G54" s="34" t="s">
+      <c r="F54" s="26"/>
+      <c r="G54" s="30" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="32">
+      <c r="A55" s="29">
         <v>47</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="33">
+      <c r="E55" s="26">
         <v>100</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="34" t="s">
+      <c r="F55" s="26"/>
+      <c r="G55" s="30" t="s">
         <v>228</v>
       </c>
       <c r="H55" s="4" t="s">
@@ -2883,23 +2875,23 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="32">
+      <c r="A56" s="29">
         <v>48</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="26">
         <v>100</v>
       </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="34" t="s">
+      <c r="F56" s="26"/>
+      <c r="G56" s="30" t="s">
         <v>227</v>
       </c>
       <c r="H56" s="4" t="s">
@@ -2907,23 +2899,23 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="32">
+      <c r="A57" s="29">
         <v>49</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="26">
         <v>100</v>
       </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="34" t="s">
+      <c r="F57" s="26"/>
+      <c r="G57" s="30" t="s">
         <v>255</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -2931,23 +2923,23 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="32">
+      <c r="A58" s="29">
         <v>50</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="26">
         <v>100</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="34" t="s">
+      <c r="F58" s="26"/>
+      <c r="G58" s="30" t="s">
         <v>227</v>
       </c>
       <c r="H58" s="4" t="s">
@@ -2955,23 +2947,23 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="32">
+      <c r="A59" s="29">
         <v>51</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="26">
         <v>1</v>
       </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="34" t="s">
+      <c r="F59" s="26"/>
+      <c r="G59" s="30" t="s">
         <v>226</v>
       </c>
       <c r="H59" s="4" t="s">
@@ -2979,23 +2971,23 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="29">
+      <c r="A60" s="26">
         <v>52</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="26">
         <v>4</v>
       </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="34" t="s">
+      <c r="F60" s="26"/>
+      <c r="G60" s="30" t="s">
         <v>235</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -3003,23 +2995,23 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="29">
+      <c r="A61" s="26">
         <v>53</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E61" s="33">
+      <c r="E61" s="26">
         <v>16</v>
       </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="34" t="s">
+      <c r="F61" s="26"/>
+      <c r="G61" s="30" t="s">
         <v>233</v>
       </c>
       <c r="H61" s="4" t="s">
@@ -3027,190 +3019,214 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="29">
+      <c r="A62" s="26">
         <v>54</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="26">
         <v>1</v>
       </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="34" t="s">
+      <c r="F62" s="26"/>
+      <c r="G62" s="30" t="s">
         <v>226</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="32">
+    <row r="63" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="26">
         <v>55</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="26">
+        <v>1</v>
+      </c>
+      <c r="F63" s="26"/>
+      <c r="G63" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="H63" s="36">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="29">
+        <v>56</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C64" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D64" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="22"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="32">
-        <v>56</v>
-      </c>
-      <c r="B64" s="19" t="s">
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="29">
+        <v>57</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C65" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D65" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E65" s="17">
         <v>6</v>
       </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="22"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="32">
-        <v>57</v>
-      </c>
-      <c r="B65" s="19" t="s">
+      <c r="F65" s="17"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="29">
+        <v>58</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C66" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D66" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="22"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="32">
-        <v>58</v>
-      </c>
-      <c r="B66" s="19" t="s">
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="29">
+        <v>59</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D67" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E67" s="17">
         <v>6</v>
       </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="22"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="19"/>
+    </row>
+    <row r="68" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="19"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="22"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="19"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="22"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="19"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="22"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="19"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="22"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="22"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="19"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="22"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="19"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="22"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="19"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="22"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="19"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3278,1028 +3294,1028 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.21875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.21875" style="5" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>8</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>1</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>8</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="D13" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="17">
         <v>7</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="17">
         <v>11</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="D15" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="17">
         <v>11</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="17">
         <v>4</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="22" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="D17" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="17">
         <v>11</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="22" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D18" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="17">
         <v>4</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="22" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="19">
+      <c r="D19" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="17">
         <v>4</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="22" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="D20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="17">
         <v>6</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="22" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="19">
+      <c r="D21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="17">
         <v>6</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="22" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="D22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="17">
         <v>8</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <v>3</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="22" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>16</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="19">
+      <c r="D24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="17">
         <v>5</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>17</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="D25" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="17">
         <v>5</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="22" t="s">
+      <c r="F25" s="17"/>
+      <c r="G25" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>18</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="19">
+      <c r="D26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="17">
         <v>5</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="22" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>19</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="19">
+      <c r="D27" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="17">
         <v>5</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="22" t="s">
+      <c r="F27" s="17"/>
+      <c r="G27" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="19">
+      <c r="D28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="17">
         <v>4</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="22" t="s">
+      <c r="F28" s="17"/>
+      <c r="G28" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>21</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="17">
         <v>3</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="22" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>22</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="19">
+      <c r="D30" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="17">
         <v>11</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="22" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>23</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="19">
+      <c r="D31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="17">
         <v>3</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="22" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <v>24</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="19">
+      <c r="D32" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="17">
         <v>2</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="22" t="s">
+      <c r="F32" s="17"/>
+      <c r="G32" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="A33" s="17">
         <v>25</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="17">
         <v>10</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="22" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
+      <c r="A34" s="17">
         <v>26</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <v>1</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="22" t="s">
+      <c r="F34" s="17"/>
+      <c r="G34" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+      <c r="A35" s="17">
         <v>27</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="17">
         <v>2</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="22" t="s">
+      <c r="F35" s="17"/>
+      <c r="G35" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+      <c r="A36" s="17">
         <v>28</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="17">
         <v>2</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="22" t="s">
+      <c r="F36" s="17"/>
+      <c r="G36" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+      <c r="A37" s="17">
         <v>29</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="19">
+      <c r="D37" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="17">
         <v>7</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="22" t="s">
+      <c r="F37" s="17"/>
+      <c r="G37" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
+      <c r="A38" s="17">
         <v>30</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="19">
+      <c r="D38" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="17">
         <v>7</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="22" t="s">
+      <c r="F38" s="17"/>
+      <c r="G38" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <v>31</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="19">
+      <c r="D39" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="17">
         <v>5</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="22" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="19">
+      <c r="A40" s="17">
         <v>32</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="17">
         <v>5</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="22" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+      <c r="A41" s="17">
         <v>33</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="17">
         <v>5</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="22" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="19">
+      <c r="A42" s="17">
         <v>34</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="17">
         <v>1</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="22" t="s">
+      <c r="F42" s="17"/>
+      <c r="G42" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
+      <c r="A43" s="17">
         <v>35</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="17">
         <v>1</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="22" t="s">
+      <c r="F43" s="17"/>
+      <c r="G43" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="19">
+      <c r="A44" s="17">
         <v>36</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="19">
+      <c r="D44" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="17">
         <v>6</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="22" t="s">
+      <c r="F44" s="17"/>
+      <c r="G44" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+      <c r="A45" s="17">
         <v>37</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="17">
         <v>8</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="19">
+      <c r="A46" s="17">
         <v>38</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="17">
         <v>6</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="19">
+      <c r="A47" s="17">
         <v>39</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="17">
         <v>8</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="19">
+      <c r="A48" s="17">
         <v>40</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="17">
         <v>6</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7517AA3A-498A-43A4-A221-4DD95EC02353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F477D7F-7764-4332-87D5-AE79F17E1BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="269">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1080,6 +1080,34 @@
     <t>整批入帳自動收取當月火險費
 設為Y時，入帳日等於當月火險費時整批入帳會自動收取
 設為N時，整批入帳檢核訊息[未收當月火險費:xxx,xxx]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IcsFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICS啟用記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IcsUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICS網址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICS資產資料傳輸到ICS系統,服務協定為RESTful</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/12/27智偉新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1382,14 +1410,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1730,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1749,10 +1777,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1764,8 +1792,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="12" t="s">
         <v>149</v>
       </c>
@@ -1777,10 +1805,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
@@ -1790,10 +1818,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="10"/>
@@ -1801,10 +1829,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="8"/>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -1812,10 +1840,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="10"/>
@@ -1823,10 +1851,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>
@@ -3062,55 +3090,67 @@
       <c r="G63" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63" s="34">
         <v>44915</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="29">
+    <row r="64" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="26">
         <v>56</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" s="26">
+        <v>1</v>
+      </c>
+      <c r="F64" s="26"/>
+      <c r="G64" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="26">
+        <v>57</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="26">
+        <v>100</v>
+      </c>
+      <c r="F65" s="26"/>
+      <c r="G65" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="17">
+        <v>58</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C66" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="19"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="29">
-        <v>57</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="17">
-        <v>6</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="29">
-        <v>58</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>20</v>
@@ -3119,15 +3159,15 @@
       <c r="F66" s="17"/>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="29">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="17">
         <v>59</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>18</v>
@@ -3138,25 +3178,43 @@
       <c r="F67" s="17"/>
       <c r="G67" s="19"/>
     </row>
-    <row r="68" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="17">
+        <v>60</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
       <c r="G68" s="19"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="17">
+        <v>61</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="17">
+        <v>6</v>
+      </c>
       <c r="F69" s="17"/>
       <c r="G69" s="19"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -3165,7 +3223,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="19"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -3174,7 +3232,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="19"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -3183,7 +3241,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="19"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -3192,7 +3250,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -3201,7 +3259,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="19"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -3210,7 +3268,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="19"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -3219,7 +3277,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="19"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -3227,6 +3285,24 @@
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="19"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3304,10 +3380,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3319,8 +3395,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
@@ -3332,10 +3408,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
@@ -3345,10 +3421,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="10"/>
@@ -3356,10 +3432,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="8"/>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -3367,10 +3443,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="10"/>
@@ -3378,10 +3454,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F477D7F-7764-4332-87D5-AE79F17E1BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF54BE4-7720-44BA-9246-4ED92828B841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="271">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1108,6 +1108,14 @@
   </si>
   <si>
     <t>2022/12/27智偉新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuSettleDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險保費已解付新產日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1307,7 +1315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,6 +1419,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1758,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1777,10 +1791,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1806,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="12" t="s">
         <v>149</v>
       </c>
@@ -1805,10 +1819,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
@@ -1818,10 +1832,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="10"/>
@@ -1829,10 +1843,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8"/>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -1840,10 +1854,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="10"/>
@@ -1851,10 +1865,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>
@@ -3142,39 +3156,40 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
+    <row r="66" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="26">
         <v>58</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="19"/>
+      <c r="B66" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="26">
+        <v>8</v>
+      </c>
+      <c r="F66" s="26"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="35"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>59</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="17">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="19"/>
     </row>
@@ -3183,15 +3198,17 @@
         <v>60</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="E68" s="17">
+        <v>6</v>
+      </c>
       <c r="F68" s="17"/>
       <c r="G68" s="19"/>
     </row>
@@ -3200,30 +3217,38 @@
         <v>61</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="17">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="19"/>
     </row>
-    <row r="70" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="17">
+        <v>62</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="17">
+        <v>6</v>
+      </c>
       <c r="F70" s="17"/>
       <c r="G70" s="19"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -3303,6 +3328,15 @@
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3380,10 +3414,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3395,8 +3429,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
@@ -3408,10 +3442,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
@@ -3421,10 +3455,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="10"/>
@@ -3432,10 +3466,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8"/>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -3443,10 +3477,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="10"/>
@@ -3454,10 +3488,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF54BE4-7720-44BA-9246-4ED92828B841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BFA00F-EFFA-4EE1-B9AF-8D1637B9590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="284">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1069,53 +1069,105 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>整批入帳自動收取當月火險費</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BatchFireFeeFg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>整批入帳自動收取當月火險費
+    <t>IcsFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICS啟用記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IcsUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICS網址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICS資產資料傳輸到ICS系統,服務協定為RESTful</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/12/27智偉新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuSettleDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險保費已解付新產日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次收取當月火險費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次收取當月火險費
 設為Y時，入帳日等於當月火險費時整批入帳會自動收取
 設為N時，整批入帳檢核訊息[未收當月火險費:xxx,xxx]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IcsFg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICS啟用記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IcsUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICS網址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICS資產資料傳輸到ICS系統,服務協定為RESTful</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/12/27智偉新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuSettleDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險保費已解付新產日期</t>
+    <t>JcicZName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicZTel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jcic債協聯絡人姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jcic債協聯絡人電話</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jcic債協聯絡人部門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/1/1銘傑新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicMU1Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicMU1Tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicMU1聯絡人部門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicMU1聯絡人姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicMU1聯絡人電話</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicZDep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicMU1Dep</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1772,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3089,10 +3141,10 @@
         <v>55</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D63" s="26" t="s">
         <v>105</v>
@@ -3102,7 +3154,7 @@
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="30" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H63" s="34">
         <v>44915</v>
@@ -3113,13 +3165,13 @@
         <v>56</v>
       </c>
       <c r="B64" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="26" t="s">
         <v>262</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>264</v>
       </c>
       <c r="E64" s="26">
         <v>1</v>
@@ -3129,7 +3181,7 @@
         <v>226</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3137,10 +3189,10 @@
         <v>57</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>105</v>
@@ -3150,10 +3202,10 @@
       </c>
       <c r="F65" s="26"/>
       <c r="G65" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
@@ -3161,10 +3213,10 @@
         <v>58</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D66" s="26" t="s">
         <v>34</v>
@@ -3176,129 +3228,211 @@
       <c r="G66" s="30"/>
       <c r="H66" s="35"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
+    <row r="67" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26">
         <v>59</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="26">
+        <v>3</v>
+      </c>
+      <c r="F67" s="26"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26">
+        <v>60</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="26">
+        <v>4</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="26">
+        <v>61</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="26">
+        <v>16</v>
+      </c>
+      <c r="F69" s="26"/>
+      <c r="G69" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="H69" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="26">
+        <v>62</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="26">
+        <v>3</v>
+      </c>
+      <c r="F70" s="26"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="26">
+        <v>63</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="26">
+        <v>4</v>
+      </c>
+      <c r="F71" s="26"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="26">
+        <v>64</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="26">
+        <v>16</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="H72" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="17">
+        <v>65</v>
+      </c>
+      <c r="B73" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C73" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D73" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
-        <v>60</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="17">
-        <v>6</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
-        <v>61</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
-        <v>62</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="17">
-        <v>6</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="19"/>
-    </row>
-    <row r="71" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="19"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="19"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+    <row r="74" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="17">
+        <v>66</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="17">
+        <v>6</v>
+      </c>
       <c r="F74" s="17"/>
       <c r="G74" s="19"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
+      <c r="A75" s="17">
+        <v>67</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
       <c r="G75" s="19"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
+      <c r="A76" s="17">
+        <v>68</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="17">
+        <v>6</v>
+      </c>
       <c r="F76" s="17"/>
       <c r="G76" s="19"/>
     </row>
@@ -3328,15 +3462,6 @@
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="19"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BFA00F-EFFA-4EE1-B9AF-8D1637B9590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2CFCB-0856-4565-847D-3C0E1C947E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="289">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1168,6 +1168,26 @@
   </si>
   <si>
     <t>JcicMU1Dep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IcsBatchMaxCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICS每批最大筆數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICS資產資料傳輸參數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/02/01智偉新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1824,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3208,63 +3228,65 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="26">
         <v>58</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="E66" s="26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F66" s="26"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="35"/>
+      <c r="G66" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="67" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="26">
         <v>59</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="E67" s="26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F67" s="26"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="35" t="s">
-        <v>276</v>
-      </c>
+      <c r="H67" s="35"/>
     </row>
     <row r="68" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="26">
         <v>60</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>157</v>
       </c>
       <c r="E68" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="30"/>
@@ -3277,43 +3299,43 @@
         <v>61</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="E69" s="26">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="30" t="s">
-        <v>233</v>
-      </c>
+      <c r="G69" s="30"/>
       <c r="H69" s="35" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26">
         <v>62</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E70" s="26">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="30"/>
+      <c r="G70" s="30" t="s">
+        <v>233</v>
+      </c>
       <c r="H70" s="35" t="s">
         <v>276</v>
       </c>
@@ -3323,16 +3345,16 @@
         <v>63</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>157</v>
       </c>
       <c r="E71" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="30"/>
@@ -3345,75 +3367,80 @@
         <v>64</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="E72" s="26">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="30" t="s">
-        <v>233</v>
-      </c>
+      <c r="G72" s="30"/>
       <c r="H72" s="35" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="17">
+      <c r="A73" s="26">
         <v>65</v>
       </c>
-      <c r="B73" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="19"/>
-    </row>
-    <row r="74" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="26">
+        <v>16</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>66</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="17">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E74" s="17"/>
       <c r="F74" s="17"/>
       <c r="G74" s="19"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17">
         <v>67</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="E75" s="17">
+        <v>6</v>
+      </c>
       <c r="F75" s="17"/>
       <c r="G75" s="19"/>
     </row>
@@ -3422,26 +3449,34 @@
         <v>68</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="17">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="19"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="A77" s="17">
+        <v>69</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="17">
+        <v>6</v>
+      </c>
       <c r="F77" s="17"/>
       <c r="G77" s="19"/>
     </row>
@@ -3462,6 +3497,15 @@
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2CFCB-0856-4565-847D-3C0E1C947E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8BB4A7-469F-4994-AD5C-27F0BF33F56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="297">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -900,11 +900,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>L6501維護
-預設值=3                                                  追回[繳納1期]但[未繳足3期]期款即結清（含部分還款達60萬之案件)，未曾繳款者則同時追回房貸專員業績</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">L6501維護
 預設值=0 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1003,10 +998,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>減免金額限額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>超過時需主管刷卡
 L6501維護
 預設值=200</t>
@@ -1189,13 +1180,57 @@
   <si>
     <t>2023/02/01智偉新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreRemitLimit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心匯款金額上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設1500萬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/2/9家興新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦減免限額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>課主管減免限額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部主管減免限額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過時需主管刷卡
+L6501維護
+預設值=3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過時需主管刷卡
+L6501維護
+預設值=10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6501維護
+預設值=3                                                  追回[繳納1期]但[未繳足3期]期款即結清（含部分還款達60萬之案件)，未曾繳款者則同時追回房貸專員業績</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1302,12 +1337,6 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1387,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1474,9 +1503,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1844,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1863,10 +1889,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1878,8 +1904,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="12" t="s">
         <v>149</v>
       </c>
@@ -1891,10 +1917,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
@@ -1904,10 +1930,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="10"/>
@@ -1915,10 +1941,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="8"/>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -1926,10 +1952,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="10"/>
@@ -1937,10 +1963,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>
@@ -2493,7 +2519,7 @@
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="19" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2514,7 +2540,7 @@
         <v>150</v>
       </c>
       <c r="F33" s="25"/>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="31" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2537,7 +2563,7 @@
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2603,10 +2629,10 @@
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -2625,7 +2651,7 @@
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2647,19 +2673,19 @@
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
-        <f>A39+1</f>
-        <v>32</v>
+        <f>A36+1</f>
+        <v>29</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>95</v>
@@ -2669,60 +2695,63 @@
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
-        <f>A40+1</f>
-        <v>33</v>
+        <f>A37+1</f>
+        <v>30</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>202</v>
+        <v>241</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>292</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>95</v>
       </c>
       <c r="E41" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
-        <f>A41+1</f>
-        <v>34</v>
+        <f t="shared" ref="A42:A80" si="4">A38+1</f>
+        <v>31</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>201</v>
+        <v>241</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>95</v>
       </c>
       <c r="E42" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F42" s="17"/>
+      <c r="G42" s="19" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
-        <f>A42+1</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>95</v>
@@ -2731,35 +2760,39 @@
         <v>3</v>
       </c>
       <c r="F43" s="17"/>
-      <c r="G43" s="19"/>
+      <c r="G43" s="19" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
-        <v>36</v>
+      <c r="A44" s="17">
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>229</v>
+        <v>200</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>201</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="17">
+        <v>3</v>
+      </c>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
-        <f t="shared" ref="A45:A53" si="4">A44+1</f>
-        <v>37</v>
+        <f t="shared" si="4"/>
+        <v>31</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>95</v>
@@ -2770,742 +2803,831 @@
       <c r="F45" s="17"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="26">
+    <row r="46" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="17">
+        <v>3</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="17">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="17">
+        <v>1</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="17">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="17">
+        <v>50</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="17">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="17">
+        <v>8</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="17">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="26">
+        <v>3</v>
+      </c>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="17">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="26">
+        <v>3</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="17">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="17">
+        <v>8</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="17">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="26">
+        <v>1</v>
+      </c>
+      <c r="F54" s="26"/>
+      <c r="G54" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="17">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="26">
+        <v>100</v>
+      </c>
+      <c r="F55" s="26"/>
+      <c r="G55" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="17">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="26">
+        <v>100</v>
+      </c>
+      <c r="F56" s="26"/>
+      <c r="G56" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="17">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="26">
+        <v>100</v>
+      </c>
+      <c r="F57" s="26"/>
+      <c r="G57" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="17">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="26">
+        <v>100</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="17">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="26">
+        <v>100</v>
+      </c>
+      <c r="F59" s="26"/>
+      <c r="G59" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="17">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="26">
+        <v>100</v>
+      </c>
+      <c r="F60" s="26"/>
+      <c r="G60" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="17">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="26">
+        <v>1</v>
+      </c>
+      <c r="F61" s="26"/>
+      <c r="G61" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="17">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="26">
+        <v>4</v>
+      </c>
+      <c r="F62" s="26"/>
+      <c r="G62" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="17">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="26">
+        <v>16</v>
+      </c>
+      <c r="F63" s="26"/>
+      <c r="G63" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="17">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64" s="26">
+        <v>1</v>
+      </c>
+      <c r="F64" s="26"/>
+      <c r="G64" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="17">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="26">
+        <v>1</v>
+      </c>
+      <c r="F65" s="26"/>
+      <c r="G65" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="H65" s="33">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="17">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66" s="26">
+        <v>1</v>
+      </c>
+      <c r="F66" s="26"/>
+      <c r="G66" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="17">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="17">
-        <v>1</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="26">
+      <c r="B67" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="26">
+        <v>100</v>
+      </c>
+      <c r="F67" s="26"/>
+      <c r="G67" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="17">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E68" s="26">
+        <v>5</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="17">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="26">
+        <v>8</v>
+      </c>
+      <c r="F69" s="26"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="34"/>
+    </row>
+    <row r="70" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="17">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="26">
+        <v>3</v>
+      </c>
+      <c r="F70" s="26"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="17" t="s">
+      <c r="B71" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E47" s="17">
-        <v>50</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="29">
+      <c r="E71" s="26">
+        <v>4</v>
+      </c>
+      <c r="F71" s="26"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="17">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="26">
+        <v>16</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="17">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" s="26">
+        <v>3</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="17">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="26">
+        <v>4</v>
+      </c>
+      <c r="F74" s="26"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="17">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="17">
-        <v>8</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="26">
+      <c r="B75" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="26">
+        <v>16</v>
+      </c>
+      <c r="F75" s="26"/>
+      <c r="G75" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="17">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="26">
+        <v>16</v>
+      </c>
+      <c r="F76" s="26">
+        <v>2</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="H76" s="34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="17">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="17">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="17">
+        <v>6</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="19"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="17">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="26">
-        <v>3</v>
-      </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="26">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="26">
-        <v>3</v>
-      </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="26">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="17">
-        <v>8</v>
-      </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="29">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E52" s="26">
-        <v>1</v>
-      </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="29">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="26">
-        <v>100</v>
-      </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="29">
-        <v>46</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" s="26">
-        <v>100</v>
-      </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="29">
-        <v>47</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="26">
-        <v>100</v>
-      </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="29">
-        <v>48</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="26">
-        <v>100</v>
-      </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="29">
-        <v>49</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="26">
-        <v>100</v>
-      </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="29">
-        <v>50</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="26">
-        <v>100</v>
-      </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="29">
-        <v>51</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="26">
-        <v>1</v>
-      </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="26">
-        <v>52</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="26">
-        <v>4</v>
-      </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="26">
-        <v>53</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="26">
-        <v>16</v>
-      </c>
-      <c r="F61" s="26"/>
-      <c r="G61" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="26">
-        <v>54</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="E62" s="26">
-        <v>1</v>
-      </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="26">
-        <v>55</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="26">
-        <v>1</v>
-      </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H63" s="34">
-        <v>44915</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="26">
-        <v>56</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="E64" s="26">
-        <v>1</v>
-      </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="H64" s="34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="26">
-        <v>57</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="26">
-        <v>100</v>
-      </c>
-      <c r="F65" s="26"/>
-      <c r="G65" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="H65" s="34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="26">
-        <v>58</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E66" s="26">
-        <v>5</v>
-      </c>
-      <c r="F66" s="26"/>
-      <c r="G66" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26">
-        <v>59</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="26">
-        <v>8</v>
-      </c>
-      <c r="F67" s="26"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="35"/>
-    </row>
-    <row r="68" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26">
-        <v>60</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E68" s="26">
-        <v>3</v>
-      </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="35" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="26">
-        <v>61</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E69" s="26">
-        <v>4</v>
-      </c>
-      <c r="F69" s="26"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="35" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="26">
-        <v>62</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E70" s="26">
-        <v>16</v>
-      </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="26">
-        <v>63</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="26">
-        <v>3</v>
-      </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="35" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="26">
-        <v>64</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="26">
-        <v>4</v>
-      </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="35" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="26">
-        <v>65</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E73" s="26">
-        <v>16</v>
-      </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="H73" s="35" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="17">
-        <v>66</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="17" t="s">
+      <c r="B79" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="19"/>
-    </row>
-    <row r="75" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="17">
-        <v>67</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="17">
-        <v>6</v>
-      </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
-        <v>68</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="19"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
-        <v>69</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="17">
-        <v>6</v>
-      </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="19"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="19"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="19"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="A80" s="17">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="17">
+        <v>6</v>
+      </c>
       <c r="F80" s="17"/>
       <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3583,10 +3705,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3598,8 +3720,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
@@ -3611,10 +3733,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
@@ -3624,10 +3746,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="10"/>
@@ -3635,10 +3757,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="8"/>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -3646,10 +3768,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="10"/>
@@ -3657,10 +3779,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8BB4A7-469F-4994-AD5C-27F0BF33F56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E8383B-BD73-46B8-BE19-8F0546EDD81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="299">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -994,16 +994,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ReduceAmtLimit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超過時需主管刷卡
-L6501維護
-預設值=200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LoanMediaFtpUrl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1210,20 +1200,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>超過時需主管刷卡
+    <t>L6501維護
+預設值=3                                                  追回[繳納1期]但[未繳足3期]期款即結清（含部分還款達60萬之案件)，未曾繳款者則同時追回房貸專員業績</t>
+  </si>
+  <si>
+    <t>ReduceAmtLimit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReduceAmtLimit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReduceAmtLimit3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過時需課主管以上刷卡
+L6501維護
+預設值=200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過時需部主管以上刷卡
 L6501維護
 預設值=3000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>超過時需主管刷卡
+    <t>超過時需副總以上主管刷卡
 L6501維護
 預設值=10000</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L6501維護
-預設值=3                                                  追回[繳納1期]但[未繳足3期]期款即結清（含部分還款達60萬之案件)，未曾繳款者則同時追回房貸專員業績</t>
   </si>
 </sst>
 </file>
@@ -1872,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2019,7 +2027,6 @@
     </row>
     <row r="10" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
-        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -2041,7 +2048,6 @@
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
-        <f t="shared" ref="A11" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -2063,7 +2069,6 @@
     </row>
     <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
-        <f t="shared" ref="A12:A27" si="1">A11+1</f>
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -2085,7 +2090,6 @@
     </row>
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -2107,7 +2111,6 @@
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -2129,7 +2132,6 @@
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -2151,7 +2153,6 @@
     </row>
     <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -2173,7 +2174,6 @@
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -2195,7 +2195,6 @@
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -2217,7 +2216,6 @@
     </row>
     <row r="19" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -2239,7 +2237,6 @@
     </row>
     <row r="20" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -2261,7 +2258,6 @@
     </row>
     <row r="21" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
-        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -2283,7 +2279,6 @@
     </row>
     <row r="22" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -2305,7 +2300,6 @@
     </row>
     <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -2327,7 +2321,6 @@
     </row>
     <row r="24" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -2349,7 +2342,6 @@
     </row>
     <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -2371,7 +2363,6 @@
     </row>
     <row r="26" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -2393,7 +2384,6 @@
     </row>
     <row r="27" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -2480,7 +2470,6 @@
     </row>
     <row r="31" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
-        <f t="shared" ref="A31:A32" si="2">A30+1</f>
         <v>23</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -2502,7 +2491,6 @@
     </row>
     <row r="32" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
-        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B32" s="17" t="s">
@@ -2519,12 +2507,11 @@
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
-        <f>A32+1</f>
         <v>25</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -2546,7 +2533,6 @@
     </row>
     <row r="34" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
-        <f>A33+1</f>
         <v>26</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -2568,7 +2554,6 @@
     </row>
     <row r="35" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
-        <f t="shared" ref="A35:A39" si="3">A34+1</f>
         <v>27</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -2590,7 +2575,6 @@
     </row>
     <row r="36" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
-        <f>A35+1</f>
         <v>28</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -2612,7 +2596,6 @@
     </row>
     <row r="37" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
-        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -2634,7 +2617,6 @@
     </row>
     <row r="38" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
-        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B38" s="17" t="s">
@@ -2656,7 +2638,6 @@
     </row>
     <row r="39" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
-        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B39" s="17" t="s">
@@ -2678,74 +2659,70 @@
     </row>
     <row r="40" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
-        <f>A36+1</f>
-        <v>29</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="17">
+        <v>32</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="25">
         <v>5</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="19" t="s">
-        <v>242</v>
+      <c r="F40" s="25"/>
+      <c r="G40" s="31" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
-        <f>A37+1</f>
-        <v>30</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="17">
+        <v>33</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="25">
         <v>5</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="19" t="s">
-        <v>294</v>
+      <c r="F41" s="25"/>
+      <c r="G41" s="31" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
-        <f t="shared" ref="A42:A80" si="4">A38+1</f>
-        <v>31</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="17">
+        <v>34</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="25">
         <v>5</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="19" t="s">
-        <v>295</v>
+      <c r="F42" s="25"/>
+      <c r="G42" s="31" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>148</v>
@@ -2766,8 +2743,7 @@
     </row>
     <row r="44" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>200</v>
@@ -2785,8 +2761,7 @@
     </row>
     <row r="45" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>152</v>
@@ -2805,8 +2780,7 @@
     </row>
     <row r="46" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>229</v>
@@ -2823,8 +2797,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>153</v>
@@ -2843,8 +2816,7 @@
     </row>
     <row r="48" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>154</v>
@@ -2865,8 +2837,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>155</v>
@@ -2885,8 +2856,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>186</v>
@@ -2906,8 +2876,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>187</v>
@@ -2928,8 +2897,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>189</v>
@@ -2950,8 +2918,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>106</v>
@@ -2972,8 +2939,7 @@
     </row>
     <row r="54" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>195</v>
@@ -2994,8 +2960,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>191</v>
@@ -3016,8 +2981,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>198</v>
@@ -3038,14 +3002,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B57" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>245</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>105</v>
@@ -3058,19 +3021,18 @@
         <v>227</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B58" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="26" t="s">
         <v>244</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>246</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>105</v>
@@ -3083,19 +3045,18 @@
         <v>226</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>105</v>
@@ -3105,22 +3066,21 @@
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>105</v>
@@ -3133,19 +3093,18 @@
         <v>226</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>105</v>
@@ -3158,13 +3117,12 @@
         <v>225</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>235</v>
@@ -3188,8 +3146,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>236</v>
@@ -3213,8 +3170,7 @@
     </row>
     <row r="64" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B64" s="26" t="s">
         <v>238</v>
@@ -3238,14 +3194,13 @@
     </row>
     <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>105</v>
@@ -3255,7 +3210,7 @@
       </c>
       <c r="F65" s="26"/>
       <c r="G65" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H65" s="33">
         <v>44915</v>
@@ -3263,17 +3218,16 @@
     </row>
     <row r="66" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B66" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" s="26" t="s">
         <v>258</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>260</v>
       </c>
       <c r="E66" s="26">
         <v>1</v>
@@ -3283,19 +3237,18 @@
         <v>225</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>105</v>
@@ -3305,47 +3258,45 @@
       </c>
       <c r="F67" s="26"/>
       <c r="G67" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B68" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" s="26" t="s">
         <v>282</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>284</v>
       </c>
       <c r="E68" s="26">
         <v>5</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D69" s="26" t="s">
         <v>34</v>
@@ -3359,14 +3310,13 @@
     </row>
     <row r="70" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D70" s="26" t="s">
         <v>157</v>
@@ -3377,19 +3327,18 @@
       <c r="F70" s="26"/>
       <c r="G70" s="29"/>
       <c r="H70" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B71" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>269</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>271</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>157</v>
@@ -3400,19 +3349,18 @@
       <c r="F71" s="26"/>
       <c r="G71" s="29"/>
       <c r="H71" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B72" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="26" t="s">
         <v>270</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>272</v>
       </c>
       <c r="D72" s="26" t="s">
         <v>105</v>
@@ -3425,19 +3373,18 @@
         <v>232</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D73" s="26" t="s">
         <v>157</v>
@@ -3448,19 +3395,18 @@
       <c r="F73" s="26"/>
       <c r="G73" s="29"/>
       <c r="H73" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D74" s="26" t="s">
         <v>157</v>
@@ -3471,19 +3417,18 @@
       <c r="F74" s="26"/>
       <c r="G74" s="29"/>
       <c r="H74" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="17">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D75" s="26" t="s">
         <v>105</v>
@@ -3496,19 +3441,18 @@
         <v>232</v>
       </c>
       <c r="H75" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D76" s="26" t="s">
         <v>95</v>
@@ -3520,16 +3464,15 @@
         <v>2</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>98</v>
@@ -3546,8 +3489,7 @@
     </row>
     <row r="78" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>100</v>
@@ -3566,8 +3508,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
-        <f t="shared" si="4"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -3584,8 +3525,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>23</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E8383B-BD73-46B8-BE19-8F0546EDD81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC61F9D9-36A6-4EA5-8B78-D5DBE315EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="303">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1231,6 +1231,23 @@
     <t>超過時需副總以上主管刷卡
 L6501維護
 預設值=10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6972Flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否正在搬運資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1558,9 +1575,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1598,9 +1615,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1633,26 +1650,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1685,26 +1685,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1878,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3470,56 +3453,61 @@
         <v>288</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
         <v>69</v>
       </c>
-      <c r="B77" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="19"/>
-    </row>
-    <row r="78" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" s="26">
+        <v>1</v>
+      </c>
+      <c r="F77" s="26"/>
+      <c r="G77" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="H77" s="34"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>70</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="17">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="19"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>71</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="E79" s="17">
+        <v>6</v>
+      </c>
       <c r="F79" s="17"/>
       <c r="G79" s="19"/>
     </row>
@@ -3528,26 +3516,34 @@
         <v>72</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="17">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="19"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="A81" s="17">
+        <v>73</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="17">
+        <v>6</v>
+      </c>
       <c r="F81" s="17"/>
       <c r="G81" s="19"/>
     </row>
@@ -3568,6 +3564,15 @@
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC61F9D9-36A6-4EA5-8B78-D5DBE315EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3989591C-8B8E-4C26-B6B6-4DA1F3AAB948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="309">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1248,6 +1248,30 @@
   <si>
     <t>Y:是
 N:否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/6/19智偉新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PfxPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PfxAuth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>憑證路徑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>憑證認證</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/6/13智偉新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1861,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3473,53 +3497,63 @@
       <c r="G77" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="H77" s="34"/>
+      <c r="H77" s="34" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>70</v>
       </c>
-      <c r="B78" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="19"/>
-    </row>
-    <row r="79" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="26">
+        <v>100</v>
+      </c>
+      <c r="F78" s="26"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>71</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" s="26">
         <v>100</v>
       </c>
-      <c r="C79" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="17">
-        <v>6</v>
-      </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="19"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="34" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
         <v>72</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>20</v>
@@ -3528,15 +3562,15 @@
       <c r="F80" s="17"/>
       <c r="G80" s="19"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
         <v>73</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>18</v>
@@ -3548,20 +3582,38 @@
       <c r="G81" s="19"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
+      <c r="A82" s="17">
+        <v>74</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="A83" s="17">
+        <v>75</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="17">
+        <v>6</v>
+      </c>
       <c r="F83" s="17"/>
       <c r="G83" s="19"/>
     </row>
@@ -3573,6 +3625,24 @@
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3989591C-8B8E-4C26-B6B6-4DA1F3AAB948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812A78D1-C30E-4786-B262-314D9430BE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="317">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1274,12 +1274,96 @@
     <t>2023/6/13智偉新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Y:啟用(2023-07-04 改回用FTP from SKL 琦欣)
+N:不啟用
+A:API模式(2023-05-29 改用API傳送 from SKL 琦欣)
+T:測試模式(2023-07-05 SKL 琦欣 說資訊長要他測API能撐最多幾筆)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>欄位名稱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中文名稱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>形態</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>長度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備註說明</t>
+    </r>
+  </si>
+  <si>
+    <t>2022/4/25詳惟新增
+2023/7/6 Wei 增加A、T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1374,20 +1458,43 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1403,6 +1510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,7 +1578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1526,23 +1639,20 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1556,29 +1666,74 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1887,1737 +2042,1801 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" style="5" customWidth="1"/>
     <col min="3" max="3" width="32.21875" style="7" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="42.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="12" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="25">
+        <v>2</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="B11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="B12" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="49">
+        <v>1</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
         <v>5</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="B13" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="49">
+        <v>2</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
         <v>6</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="B14" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="49">
+        <v>2</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <v>7</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="B15" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="49">
+        <v>2</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="B16" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="49">
+        <v>2</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
+        <v>9</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="49">
+        <v>2</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
+        <v>10</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="49">
+        <v>2</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
+        <v>11</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="49">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="F19" s="49"/>
+      <c r="G19" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
+        <v>12</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="49">
+        <v>1</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
+        <v>13</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="49">
+        <v>2</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="25">
+        <v>14</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="49">
+        <v>2</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="36"/>
+    </row>
+    <row r="23" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
+        <v>15</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="49">
+        <v>2</v>
+      </c>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="25">
+        <v>16</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="49">
+        <v>2</v>
+      </c>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="49">
+        <v>2</v>
+      </c>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="25">
+        <v>18</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="49">
+        <v>2</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="25">
+        <v>19</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="49">
+        <v>1</v>
+      </c>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="36"/>
+    </row>
+    <row r="28" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="25">
+        <v>20</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="49">
+        <v>7</v>
+      </c>
+      <c r="F28" s="49"/>
+      <c r="G28" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="25">
+        <v>21</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="49">
+        <v>7</v>
+      </c>
+      <c r="F29" s="49"/>
+      <c r="G29" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="25">
+        <v>22</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="49">
+        <v>16</v>
+      </c>
+      <c r="F30" s="49">
+        <v>2</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="25">
+        <v>23</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="49">
+        <v>3</v>
+      </c>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
+        <v>24</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="49">
+        <v>3</v>
+      </c>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="25">
+        <v>25</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="49">
+        <v>150</v>
+      </c>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="25">
+        <v>26</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="49">
+        <v>3</v>
+      </c>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="25">
+        <v>27</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="49">
+        <v>3</v>
+      </c>
+      <c r="F35" s="49"/>
+      <c r="G35" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="36" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25">
+        <v>28</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="49">
+        <v>3</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H36" s="36"/>
+    </row>
+    <row r="37" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25">
+        <v>29</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="49">
+        <v>3</v>
+      </c>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="25">
+        <v>30</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="49">
+        <v>3</v>
+      </c>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25">
+        <v>31</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="49">
+        <v>3</v>
+      </c>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="36"/>
+    </row>
+    <row r="40" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="25">
+        <v>32</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="49">
+        <v>5</v>
+      </c>
+      <c r="F40" s="49"/>
+      <c r="G40" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="41" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="25">
+        <v>33</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="49">
+        <v>5</v>
+      </c>
+      <c r="F41" s="49"/>
+      <c r="G41" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="25">
+        <v>34</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="49">
+        <v>5</v>
+      </c>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="H42" s="36"/>
+    </row>
+    <row r="43" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25">
+        <v>35</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="25">
+        <v>3</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="36"/>
+    </row>
+    <row r="44" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25">
+        <v>36</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="25">
+        <v>3</v>
+      </c>
+      <c r="F44" s="25"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="36"/>
+    </row>
+    <row r="45" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25">
+        <v>37</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="25">
+        <v>3</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="36"/>
+    </row>
+    <row r="46" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="25">
+        <v>38</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="46">
+        <v>5</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="36"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="25">
+        <v>39</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="25">
+        <v>3</v>
+      </c>
+      <c r="F47" s="25"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="36"/>
+    </row>
+    <row r="48" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="25">
+        <v>40</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="25">
+        <v>1</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="25">
+        <v>41</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="25">
+        <v>50</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="36"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="25">
+        <v>42</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="25">
+        <v>8</v>
+      </c>
+      <c r="F50" s="26"/>
+      <c r="G50" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="36"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="25">
+        <v>43</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="25">
+        <v>3</v>
+      </c>
+      <c r="F51" s="26"/>
+      <c r="G51" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="H51" s="36"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="25">
+        <v>44</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="25">
+        <v>3</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="H52" s="36"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="25">
+        <v>45</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="25">
+        <v>8</v>
+      </c>
+      <c r="F53" s="25"/>
+      <c r="G53" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" s="36"/>
+    </row>
+    <row r="54" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="25">
+        <v>46</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="25">
+        <v>1</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H54" s="36"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="25">
+        <v>47</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="25">
+        <v>100</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="H55" s="36"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="25">
+        <v>48</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E56" s="25">
+        <v>100</v>
+      </c>
+      <c r="F56" s="25"/>
+      <c r="G56" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" s="36"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="25">
+        <v>49</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="25">
+        <v>100</v>
+      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="25">
+        <v>50</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="25">
+        <v>100</v>
+      </c>
+      <c r="F58" s="25"/>
+      <c r="G58" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="25">
+        <v>51</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="25">
+        <v>100</v>
+      </c>
+      <c r="F59" s="25"/>
+      <c r="G59" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="H59" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="25">
+        <v>52</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="25">
+        <v>100</v>
+      </c>
+      <c r="F60" s="25"/>
+      <c r="G60" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+      <c r="A61" s="25">
+        <v>53</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="25">
+        <v>1</v>
+      </c>
+      <c r="F61" s="25"/>
+      <c r="G61" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="H61" s="47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="25">
+        <v>54</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="25">
+        <v>4</v>
+      </c>
+      <c r="F62" s="25"/>
+      <c r="G62" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="H62" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="25">
+        <v>55</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="25">
+        <v>16</v>
+      </c>
+      <c r="F63" s="25"/>
+      <c r="G63" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="H63" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="25">
+        <v>56</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64" s="25">
+        <v>1</v>
+      </c>
+      <c r="F64" s="25"/>
+      <c r="G64" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H64" s="36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="25">
+        <v>57</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="25">
+        <v>1</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H65" s="48">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="25">
+        <v>58</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" s="25">
+        <v>1</v>
+      </c>
+      <c r="F66" s="25"/>
+      <c r="G66" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H66" s="48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="25">
+        <v>59</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="25">
+        <v>100</v>
+      </c>
+      <c r="F67" s="25"/>
+      <c r="G67" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="H67" s="48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="25">
+        <v>60</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="E68" s="25">
+        <v>5</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="H68" s="48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="25">
+        <v>61</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="25">
+        <v>8</v>
+      </c>
+      <c r="F69" s="25"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="48"/>
+    </row>
+    <row r="70" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="25">
+        <v>62</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="25">
+        <v>3</v>
+      </c>
+      <c r="F70" s="25"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="25">
+        <v>63</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="25">
+        <v>4</v>
+      </c>
+      <c r="F71" s="25"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="25">
+        <v>64</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="25">
+        <v>16</v>
+      </c>
+      <c r="F72" s="25"/>
+      <c r="G72" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="H72" s="48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="25">
+        <v>65</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" s="25">
+        <v>3</v>
+      </c>
+      <c r="F73" s="25"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="25">
+        <v>66</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="25">
+        <v>4</v>
+      </c>
+      <c r="F74" s="25"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="25">
+        <v>67</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="25">
+        <v>16</v>
+      </c>
+      <c r="F75" s="25"/>
+      <c r="G75" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="H75" s="48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="25">
+        <v>68</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="25">
+        <v>16</v>
+      </c>
+      <c r="F76" s="25">
         <v>2</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="G76" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="H76" s="48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="25">
+        <v>69</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" s="25">
+        <v>1</v>
+      </c>
+      <c r="F77" s="25"/>
+      <c r="G77" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="H77" s="48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="25">
+        <v>70</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="25">
+        <v>100</v>
+      </c>
+      <c r="F78" s="25"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="25">
+        <v>71</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" s="25">
+        <v>100</v>
+      </c>
+      <c r="F79" s="25"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="25">
+        <v>72</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="36"/>
+    </row>
+    <row r="81" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="25">
+        <v>73</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>4</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>5</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="17">
-        <v>2</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="E81" s="25">
         <v>6</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="17">
-        <v>2</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>7</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="17">
-        <v>2</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
-        <v>8</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="17">
-        <v>2</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="17">
-        <v>2</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
-        <v>10</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="17">
-        <v>2</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <v>11</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="17">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
-        <v>12</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="17">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
-        <v>13</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="17">
-        <v>2</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
-        <v>14</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="17">
-        <v>2</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>15</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="17">
-        <v>2</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
-        <v>16</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="17">
-        <v>2</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>17</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="17">
-        <v>2</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="F81" s="25"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="36"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="25">
+        <v>74</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="36"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="25">
+        <v>75</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="17">
-        <v>2</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
-        <v>19</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="17">
-        <v>1</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
-        <v>20</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="17">
-        <v>7</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
-        <v>21</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="17">
-        <v>7</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
-        <v>22</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="17">
-        <v>16</v>
-      </c>
-      <c r="F30" s="17">
-        <v>2</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
-        <v>23</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="17">
-        <v>3</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
-        <v>24</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="17">
-        <v>3</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
-        <v>25</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="25">
-        <v>150</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
-        <v>26</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="17">
-        <v>3</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
-        <v>27</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="17">
-        <v>3</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
-        <v>28</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="17">
-        <v>3</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
-        <v>29</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="17">
-        <v>3</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
-        <v>30</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="17">
-        <v>3</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
-        <v>31</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="17">
-        <v>3</v>
-      </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
-        <v>32</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="25">
-        <v>5</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="31" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17">
-        <v>33</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="25">
-        <v>5</v>
-      </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="31" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
-        <v>34</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="25">
-        <v>5</v>
-      </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="31" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
-        <v>35</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="17">
-        <v>3</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
-        <v>36</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="17">
-        <v>3</v>
-      </c>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
-        <v>37</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="17">
-        <v>3</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
-        <v>38</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="17">
-        <v>39</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="17">
-        <v>3</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="17">
-        <v>40</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="17">
-        <v>1</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="17">
-        <v>41</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" s="17">
-        <v>50</v>
-      </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="17">
-        <v>42</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="17">
-        <v>8</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="17">
-        <v>43</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="26">
-        <v>3</v>
-      </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="17">
-        <v>44</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="26">
-        <v>3</v>
-      </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="17">
-        <v>45</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="17">
-        <v>8</v>
-      </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
-        <v>46</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" s="26">
-        <v>1</v>
-      </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="17">
-        <v>47</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" s="26">
-        <v>100</v>
-      </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
-        <v>48</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="26">
-        <v>100</v>
-      </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
-        <v>49</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="26">
-        <v>100</v>
-      </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
-        <v>50</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="26">
-        <v>100</v>
-      </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
-        <v>51</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="26">
-        <v>100</v>
-      </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="17">
-        <v>52</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="26">
-        <v>100</v>
-      </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="17">
-        <v>53</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="26">
-        <v>1</v>
-      </c>
-      <c r="F61" s="26"/>
-      <c r="G61" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="17">
-        <v>54</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" s="26">
-        <v>4</v>
-      </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="17">
-        <v>55</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="26">
-        <v>16</v>
-      </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="17">
-        <v>56</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="E64" s="26">
-        <v>1</v>
-      </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="17">
-        <v>57</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="26">
-        <v>1</v>
-      </c>
-      <c r="F65" s="26"/>
-      <c r="G65" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H65" s="33">
-        <v>44915</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
-        <v>58</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="E66" s="26">
-        <v>1</v>
-      </c>
-      <c r="F66" s="26"/>
-      <c r="G66" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="H66" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
-        <v>59</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="26">
-        <v>100</v>
-      </c>
-      <c r="F67" s="26"/>
-      <c r="G67" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="H67" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
-        <v>60</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="E68" s="26">
-        <v>5</v>
-      </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="H68" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
-        <v>61</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="26">
-        <v>8</v>
-      </c>
-      <c r="F69" s="26"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="34"/>
-    </row>
-    <row r="70" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
-        <v>62</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E70" s="26">
-        <v>3</v>
-      </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17">
-        <v>63</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="26">
-        <v>4</v>
-      </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17">
-        <v>64</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E72" s="26">
-        <v>16</v>
-      </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="H72" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="17">
-        <v>65</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E73" s="26">
-        <v>3</v>
-      </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="17">
-        <v>66</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" s="26">
-        <v>4</v>
-      </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="17">
-        <v>67</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E75" s="26">
-        <v>16</v>
-      </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
-        <v>68</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E76" s="26">
-        <v>16</v>
-      </c>
-      <c r="F76" s="26">
-        <v>2</v>
-      </c>
-      <c r="G76" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
-        <v>69</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E77" s="26">
-        <v>1</v>
-      </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="H77" s="34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
-        <v>70</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78" s="26">
-        <v>100</v>
-      </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="34" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
-        <v>71</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E79" s="26">
-        <v>100</v>
-      </c>
-      <c r="F79" s="26"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="34" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="17">
-        <v>72</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="19"/>
-    </row>
-    <row r="81" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17">
-        <v>73</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="17">
+      <c r="E83" s="25">
         <v>6</v>
       </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="17">
-        <v>74</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="17">
-        <v>75</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="17">
-        <v>6</v>
-      </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="19"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F83" s="25"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="36"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -3626,7 +3845,7 @@
       <c r="F84" s="17"/>
       <c r="G84" s="19"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -3635,7 +3854,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="19"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -3720,10 +3939,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3735,8 +3954,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
@@ -3748,10 +3967,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
@@ -3761,10 +3980,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="10"/>
@@ -3772,10 +3991,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="8"/>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -3783,10 +4002,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="10"/>
@@ -3794,10 +4013,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812A78D1-C30E-4786-B262-314D9430BE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE3C588-065F-45FE-AA55-0CD6E655B02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="322">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1356,6 +1356,28 @@
   <si>
     <t>2022/4/25詳惟新增
 2023/7/6 Wei 增加A、T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailFlag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/7/10 智偉新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是(限正式環境使用)
+N:否
+T:測試用(測試套固定發送到skcu31780001@skl.com.tw,信件標題增加"測試用")</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1648,92 +1670,92 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2040,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2059,1791 +2081,1806 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="36"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="36"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="36"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <v>2</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="28" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="D10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="23">
         <v>2</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="28" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <v>1</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="28" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <v>4</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="49">
+      <c r="D12" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="45">
         <v>1</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50" t="s">
+      <c r="F12" s="45"/>
+      <c r="G12" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="23">
         <v>5</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="49">
+      <c r="D13" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="45">
         <v>2</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50" t="s">
+      <c r="F13" s="45"/>
+      <c r="G13" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>6</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="49">
+      <c r="D14" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="45">
         <v>2</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50" t="s">
+      <c r="F14" s="45"/>
+      <c r="G14" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="A15" s="23">
         <v>7</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="49">
+      <c r="D15" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="45">
         <v>2</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="A16" s="23">
         <v>8</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="49">
+      <c r="D16" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="45">
         <v>2</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50" t="s">
+      <c r="F16" s="45"/>
+      <c r="G16" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="H16" s="36"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>9</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="49">
+      <c r="D17" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="45">
         <v>2</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50" t="s">
+      <c r="F17" s="45"/>
+      <c r="G17" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+      <c r="A18" s="23">
         <v>10</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="49">
+      <c r="D18" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="45">
         <v>2</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50" t="s">
+      <c r="F18" s="45"/>
+      <c r="G18" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="H18" s="36"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="23">
         <v>11</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="49">
+      <c r="D19" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="45">
         <v>1</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50" t="s">
+      <c r="F19" s="45"/>
+      <c r="G19" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="H19" s="36"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <v>12</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="49">
+      <c r="D20" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="45">
         <v>1</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50" t="s">
+      <c r="F20" s="45"/>
+      <c r="G20" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="36"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="23">
         <v>13</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="49">
+      <c r="D21" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="45">
         <v>2</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50" t="s">
+      <c r="F21" s="45"/>
+      <c r="G21" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="H21" s="36"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="23">
         <v>14</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="49">
+      <c r="D22" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="45">
         <v>2</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="H22" s="36"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
+      <c r="A23" s="23">
         <v>15</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="49">
+      <c r="D23" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="45">
         <v>2</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50" t="s">
+      <c r="F23" s="45"/>
+      <c r="G23" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="H23" s="36"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>16</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="49">
+      <c r="D24" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="45">
         <v>2</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50" t="s">
+      <c r="F24" s="45"/>
+      <c r="G24" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="25">
+      <c r="A25" s="23">
         <v>17</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="49">
+      <c r="D25" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="45">
         <v>2</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="H25" s="36"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="25">
+      <c r="A26" s="23">
         <v>18</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="49">
+      <c r="D26" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="45">
         <v>2</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50" t="s">
+      <c r="F26" s="45"/>
+      <c r="G26" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="H26" s="36"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>19</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="49">
+      <c r="D27" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="45">
         <v>1</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50" t="s">
+      <c r="F27" s="45"/>
+      <c r="G27" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="H27" s="36"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="25">
+      <c r="A28" s="23">
         <v>20</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="49">
+      <c r="D28" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="45">
         <v>7</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="51" t="s">
+      <c r="F28" s="45"/>
+      <c r="G28" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="H28" s="36"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>21</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="49">
+      <c r="D29" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="45">
         <v>7</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="51" t="s">
+      <c r="F29" s="45"/>
+      <c r="G29" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="23">
         <v>22</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="49">
+      <c r="D30" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="45">
         <v>16</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="45">
         <v>2</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="36"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="A31" s="23">
         <v>23</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="49">
+      <c r="D31" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="45">
         <v>3</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50" t="s">
+      <c r="F31" s="45"/>
+      <c r="G31" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="A32" s="23">
         <v>24</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="49">
+      <c r="D32" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="45">
         <v>3</v>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50" t="s">
+      <c r="F32" s="45"/>
+      <c r="G32" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="H32" s="36"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
+      <c r="A33" s="23">
         <v>25</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="45">
         <v>150</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50" t="s">
+      <c r="F33" s="45"/>
+      <c r="G33" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="H33" s="36"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="A34" s="23">
         <v>26</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="49">
+      <c r="D34" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="45">
         <v>3</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50" t="s">
+      <c r="F34" s="45"/>
+      <c r="G34" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="H34" s="36"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="A35" s="23">
         <v>27</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="49">
+      <c r="D35" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="45">
         <v>3</v>
       </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50" t="s">
+      <c r="F35" s="45"/>
+      <c r="G35" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="H35" s="36"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25">
+      <c r="A36" s="23">
         <v>28</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="49">
+      <c r="D36" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="45">
         <v>3</v>
       </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50" t="s">
+      <c r="F36" s="45"/>
+      <c r="G36" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="H36" s="36"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
+      <c r="A37" s="23">
         <v>29</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="49">
+      <c r="D37" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="45">
         <v>3</v>
       </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50" t="s">
+      <c r="F37" s="45"/>
+      <c r="G37" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H37" s="36"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="25">
+      <c r="A38" s="23">
         <v>30</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="49">
+      <c r="D38" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="45">
         <v>3</v>
       </c>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50" t="s">
+      <c r="F38" s="45"/>
+      <c r="G38" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H38" s="36"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+      <c r="A39" s="23">
         <v>31</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="49">
+      <c r="D39" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="45">
         <v>3</v>
       </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50" t="s">
+      <c r="F39" s="45"/>
+      <c r="G39" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="H39" s="36"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="23">
         <v>32</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="D40" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="49">
+      <c r="D40" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="45">
         <v>5</v>
       </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="50" t="s">
+      <c r="F40" s="45"/>
+      <c r="G40" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="25">
+      <c r="A41" s="23">
         <v>33</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="D41" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="49">
+      <c r="D41" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="45">
         <v>5</v>
       </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="50" t="s">
+      <c r="F41" s="45"/>
+      <c r="G41" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="25">
+      <c r="A42" s="23">
         <v>34</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="D42" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="49">
+      <c r="D42" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="45">
         <v>5</v>
       </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50" t="s">
+      <c r="F42" s="45"/>
+      <c r="G42" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="H42" s="36"/>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="23">
         <v>35</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="D43" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="25">
+      <c r="D43" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="23">
         <v>3</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="28" t="s">
+      <c r="F43" s="23"/>
+      <c r="G43" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="H43" s="36"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25">
+      <c r="A44" s="23">
         <v>36</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="25">
+      <c r="D44" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="23">
         <v>3</v>
       </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="36"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="32"/>
     </row>
     <row r="45" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25">
+      <c r="A45" s="23">
         <v>37</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="25">
+      <c r="D45" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="23">
         <v>3</v>
       </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="36"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25">
+      <c r="A46" s="23">
         <v>38</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="46">
+      <c r="D46" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="42">
         <v>5</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="36"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="25">
+      <c r="A47" s="23">
         <v>39</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="25">
+      <c r="D47" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="23">
         <v>3</v>
       </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="36"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="48" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="25">
+      <c r="A48" s="23">
         <v>40</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="25">
+      <c r="D48" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="23">
         <v>1</v>
       </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="28" t="s">
+      <c r="F48" s="23"/>
+      <c r="G48" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="25">
+      <c r="A49" s="23">
         <v>41</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="23">
         <v>50</v>
       </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="36"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="32"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="25">
+      <c r="A50" s="23">
         <v>42</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="23">
         <v>8</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="27" t="s">
+      <c r="F50" s="24"/>
+      <c r="G50" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="36"/>
+      <c r="H50" s="32"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
+      <c r="A51" s="23">
         <v>43</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="23">
         <v>3</v>
       </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27" t="s">
+      <c r="F51" s="24"/>
+      <c r="G51" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="H51" s="36"/>
+      <c r="H51" s="32"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="25">
+      <c r="A52" s="23">
         <v>44</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="23">
         <v>3</v>
       </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27" t="s">
+      <c r="F52" s="24"/>
+      <c r="G52" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="H52" s="36"/>
+      <c r="H52" s="32"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="25">
+      <c r="A53" s="23">
         <v>45</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="23">
         <v>8</v>
       </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="28" t="s">
+      <c r="F53" s="23"/>
+      <c r="G53" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H53" s="36"/>
+      <c r="H53" s="32"/>
     </row>
     <row r="54" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="25">
+      <c r="A54" s="23">
         <v>46</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="23">
         <v>1</v>
       </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="28" t="s">
+      <c r="F54" s="23"/>
+      <c r="G54" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="H54" s="36"/>
+      <c r="H54" s="32"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="25">
+      <c r="A55" s="23">
         <v>47</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="23">
         <v>100</v>
       </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="28" t="s">
+      <c r="F55" s="23"/>
+      <c r="G55" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="H55" s="36"/>
+      <c r="H55" s="32"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="25">
+      <c r="A56" s="23">
         <v>48</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="23">
         <v>100</v>
       </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="28" t="s">
+      <c r="F56" s="23"/>
+      <c r="G56" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="32"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="25">
+      <c r="A57" s="23">
         <v>49</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="23">
         <v>100</v>
       </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="28" t="s">
+      <c r="F57" s="23"/>
+      <c r="G57" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="H57" s="36" t="s">
+      <c r="H57" s="32" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="25">
+      <c r="A58" s="23">
         <v>50</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="23">
         <v>100</v>
       </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="28" t="s">
+      <c r="F58" s="23"/>
+      <c r="G58" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="H58" s="32" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="25">
+      <c r="A59" s="23">
         <v>51</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="23">
         <v>100</v>
       </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="28" t="s">
+      <c r="F59" s="23"/>
+      <c r="G59" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="H59" s="36" t="s">
+      <c r="H59" s="32" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="25">
+      <c r="A60" s="23">
         <v>52</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="23">
         <v>100</v>
       </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="28" t="s">
+      <c r="F60" s="23"/>
+      <c r="G60" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="H60" s="32" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="81" x14ac:dyDescent="0.3">
-      <c r="A61" s="25">
+      <c r="A61" s="23">
         <v>53</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="23">
         <v>1</v>
       </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="29" t="s">
+      <c r="F61" s="23"/>
+      <c r="G61" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="H61" s="47" t="s">
+      <c r="H61" s="43" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="25">
+      <c r="A62" s="23">
         <v>54</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="23">
         <v>4</v>
       </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="28" t="s">
+      <c r="F62" s="23"/>
+      <c r="G62" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="H62" s="36" t="s">
+      <c r="H62" s="32" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="25">
+      <c r="A63" s="23">
         <v>55</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E63" s="23">
         <v>16</v>
       </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="28" t="s">
+      <c r="F63" s="23"/>
+      <c r="G63" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="H63" s="36" t="s">
+      <c r="H63" s="32" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
+      <c r="A64" s="23">
         <v>56</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E64" s="23">
         <v>1</v>
       </c>
-      <c r="F64" s="25"/>
-      <c r="G64" s="28" t="s">
+      <c r="F64" s="23"/>
+      <c r="G64" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="H64" s="36" t="s">
+      <c r="H64" s="32" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="25">
+      <c r="A65" s="23">
         <v>57</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E65" s="23">
         <v>1</v>
       </c>
-      <c r="F65" s="25"/>
-      <c r="G65" s="28" t="s">
+      <c r="F65" s="23"/>
+      <c r="G65" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="H65" s="48">
+      <c r="H65" s="44">
         <v>44915</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="25">
+      <c r="A66" s="23">
         <v>58</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E66" s="23">
         <v>1</v>
       </c>
-      <c r="F66" s="25"/>
-      <c r="G66" s="28" t="s">
+      <c r="F66" s="23"/>
+      <c r="G66" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="H66" s="48" t="s">
+      <c r="H66" s="44" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="25">
+      <c r="A67" s="23">
         <v>59</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="23">
         <v>100</v>
       </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="28" t="s">
+      <c r="F67" s="23"/>
+      <c r="G67" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="H67" s="48" t="s">
+      <c r="H67" s="44" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="25">
+      <c r="A68" s="23">
         <v>60</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E68" s="23">
         <v>5</v>
       </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="28" t="s">
+      <c r="F68" s="23"/>
+      <c r="G68" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="H68" s="48" t="s">
+      <c r="H68" s="44" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="25">
+      <c r="A69" s="23">
         <v>61</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="25">
+      <c r="E69" s="23">
         <v>8</v>
       </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="48"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="44"/>
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="25">
+      <c r="A70" s="23">
         <v>62</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E70" s="23">
         <v>3</v>
       </c>
-      <c r="F70" s="25"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="48" t="s">
+      <c r="F70" s="23"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="44" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="25">
+      <c r="A71" s="23">
         <v>63</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E71" s="23">
         <v>4</v>
       </c>
-      <c r="F71" s="25"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="48" t="s">
+      <c r="F71" s="23"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="44" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25">
+      <c r="A72" s="23">
         <v>64</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E72" s="23">
         <v>16</v>
       </c>
-      <c r="F72" s="25"/>
-      <c r="G72" s="28" t="s">
+      <c r="F72" s="23"/>
+      <c r="G72" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="H72" s="48" t="s">
+      <c r="H72" s="44" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="25">
+      <c r="A73" s="23">
         <v>65</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E73" s="25">
+      <c r="E73" s="23">
         <v>3</v>
       </c>
-      <c r="F73" s="25"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="48" t="s">
+      <c r="F73" s="23"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="44" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="25">
+      <c r="A74" s="23">
         <v>66</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E74" s="23">
         <v>4</v>
       </c>
-      <c r="F74" s="25"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="48" t="s">
+      <c r="F74" s="23"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="44" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="25">
+      <c r="A75" s="23">
         <v>67</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="25">
+      <c r="E75" s="23">
         <v>16</v>
       </c>
-      <c r="F75" s="25"/>
-      <c r="G75" s="28" t="s">
+      <c r="F75" s="23"/>
+      <c r="G75" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="H75" s="48" t="s">
+      <c r="H75" s="44" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="25">
+      <c r="A76" s="23">
         <v>68</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="D76" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E76" s="25">
+      <c r="D76" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="23">
         <v>16</v>
       </c>
-      <c r="F76" s="25">
+      <c r="F76" s="23">
         <v>2</v>
       </c>
-      <c r="G76" s="28" t="s">
+      <c r="G76" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="H76" s="48" t="s">
+      <c r="H76" s="44" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="25">
+      <c r="A77" s="23">
         <v>69</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="E77" s="25">
+      <c r="E77" s="23">
         <v>1</v>
       </c>
-      <c r="F77" s="25"/>
-      <c r="G77" s="28" t="s">
+      <c r="F77" s="23"/>
+      <c r="G77" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="H77" s="48" t="s">
+      <c r="H77" s="44" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="25">
+      <c r="A78" s="23">
         <v>70</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E78" s="23">
         <v>100</v>
       </c>
-      <c r="F78" s="25"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="48" t="s">
+      <c r="F78" s="23"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="44" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="25">
+      <c r="A79" s="23">
         <v>71</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="D79" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E79" s="23">
         <v>100</v>
       </c>
-      <c r="F79" s="25"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="48" t="s">
+      <c r="F79" s="23"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="44" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="25">
+    <row r="80" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="23">
         <v>72</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E80" s="23">
+        <v>1</v>
+      </c>
+      <c r="F80" s="23"/>
+      <c r="G80" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="H80" s="44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="23">
+        <v>73</v>
+      </c>
+      <c r="B81" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C81" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D81" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="36"/>
-    </row>
-    <row r="81" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="25">
-        <v>73</v>
-      </c>
-      <c r="B81" s="25" t="s">
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="32"/>
+    </row>
+    <row r="82" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="23">
+        <v>74</v>
+      </c>
+      <c r="B82" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C82" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D82" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E82" s="23">
         <v>6</v>
       </c>
-      <c r="F81" s="25"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="36"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="25">
-        <v>74</v>
-      </c>
-      <c r="B82" s="25" t="s">
+      <c r="F82" s="23"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="32"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="23">
+        <v>75</v>
+      </c>
+      <c r="B83" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C83" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D83" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="36"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="25">
-        <v>75</v>
-      </c>
-      <c r="B83" s="25" t="s">
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="32"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="23">
+        <v>76</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C84" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D84" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="25">
+      <c r="E84" s="23">
         <v>6</v>
       </c>
-      <c r="F83" s="25"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="36"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="19"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="32"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
@@ -3862,6 +3899,15 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="19"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3939,10 +3985,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3954,8 +4000,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
@@ -3967,10 +4013,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
@@ -3980,10 +4026,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="10"/>
@@ -3991,10 +4037,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="8"/>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -4002,10 +4048,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="10"/>
@@ -4013,10 +4059,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE3C588-065F-45FE-AA55-0CD6E655B02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3122C76-5543-4A2A-85CD-8CA79B8D6DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="332">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1378,6 +1378,50 @@
     <t>Y:是(限正式環境使用)
 N:否
 T:測試用(測試套固定發送到skcu31780001@skl.com.tw,信件標題增加"測試用")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7206SftpUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7206SftpAuth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFTP網址（金控利關人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFTP帳號（金控利關人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/9/1 智偉新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式套 SFTP 10.11.1.58 
+測試套用EFB替代 10.11.100.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式:username：password
+正式套 帳密待申請
+測試套 loanuser:aA23895858</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7206SftpDir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFTP資料夾（金控利關人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式套 待確認
+測試套 inbound/L7206/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1600,7 +1644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1682,9 +1726,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1744,6 +1785,18 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2064,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2081,120 +2134,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="33" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="32"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="32"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="32"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="32"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
@@ -2216,7 +2269,7 @@
       <c r="G9" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="32"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
@@ -2238,7 +2291,7 @@
       <c r="G10" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
@@ -2260,691 +2313,691 @@
       <c r="G11" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="H11" s="32"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>4</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="45">
+      <c r="D12" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="44">
         <v>1</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>5</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="45">
+      <c r="D13" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="44">
         <v>2</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>6</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="45">
+      <c r="D14" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="44">
         <v>2</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>7</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="45">
+      <c r="D15" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="44">
         <v>2</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>8</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="45">
+      <c r="D16" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="44">
         <v>2</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="H16" s="32"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>9</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="45">
+      <c r="D17" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="44">
         <v>2</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46" t="s">
+      <c r="F17" s="44"/>
+      <c r="G17" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="H17" s="32"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>10</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="45">
+      <c r="D18" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="44">
         <v>2</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="H18" s="32"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>11</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="45">
+      <c r="D19" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="44">
         <v>1</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46" t="s">
+      <c r="F19" s="44"/>
+      <c r="G19" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="H19" s="32"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>12</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="45">
+      <c r="D20" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="44">
         <v>1</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46" t="s">
+      <c r="F20" s="44"/>
+      <c r="G20" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="32"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>13</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="45">
+      <c r="D21" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="44">
         <v>2</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="H21" s="32"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>14</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="45">
+      <c r="D22" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="44">
         <v>2</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46" t="s">
+      <c r="F22" s="44"/>
+      <c r="G22" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>15</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="45">
+      <c r="D23" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="44">
         <v>2</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46" t="s">
+      <c r="F23" s="44"/>
+      <c r="G23" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>16</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="45">
+      <c r="D24" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="44">
         <v>2</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46" t="s">
+      <c r="F24" s="44"/>
+      <c r="G24" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="H24" s="32"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>17</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="45">
+      <c r="D25" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="44">
         <v>2</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>18</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="45">
+      <c r="D26" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="44">
         <v>2</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>19</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="45">
+      <c r="D27" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="44">
         <v>1</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="H27" s="32"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>20</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="45">
+      <c r="D28" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="44">
         <v>7</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="47" t="s">
+      <c r="F28" s="44"/>
+      <c r="G28" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="H28" s="32"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>21</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="45">
+      <c r="D29" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="44">
         <v>7</v>
       </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="47" t="s">
+      <c r="F29" s="44"/>
+      <c r="G29" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="H29" s="32"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>22</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="45">
+      <c r="D30" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="44">
         <v>16</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="44">
         <v>2</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="32"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>23</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="45">
+      <c r="D31" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="44">
         <v>3</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46" t="s">
+      <c r="F31" s="44"/>
+      <c r="G31" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="32"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>24</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="45">
+      <c r="D32" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="44">
         <v>3</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46" t="s">
+      <c r="F32" s="44"/>
+      <c r="G32" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="H32" s="32"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>25</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="44">
         <v>150</v>
       </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46" t="s">
+      <c r="F33" s="44"/>
+      <c r="G33" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="H33" s="32"/>
+      <c r="H33" s="31"/>
     </row>
     <row r="34" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>26</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="45">
+      <c r="D34" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="44">
         <v>3</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46" t="s">
+      <c r="F34" s="44"/>
+      <c r="G34" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="H34" s="32"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>27</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="45">
+      <c r="D35" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="44">
         <v>3</v>
       </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46" t="s">
+      <c r="F35" s="44"/>
+      <c r="G35" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="H35" s="32"/>
+      <c r="H35" s="31"/>
     </row>
     <row r="36" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>28</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="45">
+      <c r="D36" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="44">
         <v>3</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46" t="s">
+      <c r="F36" s="44"/>
+      <c r="G36" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="H36" s="32"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>29</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="45">
+      <c r="D37" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="44">
         <v>3</v>
       </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46" t="s">
+      <c r="F37" s="44"/>
+      <c r="G37" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="H37" s="32"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>30</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="45">
+      <c r="D38" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="44">
         <v>3</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46" t="s">
+      <c r="F38" s="44"/>
+      <c r="G38" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="H38" s="32"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>31</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="45">
+      <c r="D39" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="44">
         <v>3</v>
       </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46" t="s">
+      <c r="F39" s="44"/>
+      <c r="G39" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="H39" s="32"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>32</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="D40" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="45">
+      <c r="D40" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="44">
         <v>5</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46" t="s">
+      <c r="F40" s="44"/>
+      <c r="G40" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="H40" s="32"/>
+      <c r="H40" s="31"/>
     </row>
     <row r="41" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>33</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="D41" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="45">
+      <c r="D41" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="44">
         <v>5</v>
       </c>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46" t="s">
+      <c r="F41" s="44"/>
+      <c r="G41" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="H41" s="32"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>34</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="D42" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="45">
+      <c r="D42" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="44">
         <v>5</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46" t="s">
+      <c r="F42" s="44"/>
+      <c r="G42" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="H42" s="32"/>
+      <c r="H42" s="31"/>
     </row>
     <row r="43" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
@@ -2953,7 +3006,7 @@
       <c r="B43" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="31" t="s">
         <v>202</v>
       </c>
       <c r="D43" s="23" t="s">
@@ -2966,7 +3019,7 @@
       <c r="G43" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="H43" s="32"/>
+      <c r="H43" s="31"/>
     </row>
     <row r="44" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
@@ -2975,7 +3028,7 @@
       <c r="B44" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="38" t="s">
         <v>201</v>
       </c>
       <c r="D44" s="23" t="s">
@@ -2985,8 +3038,8 @@
         <v>3</v>
       </c>
       <c r="F44" s="23"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="32"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="31"/>
     </row>
     <row r="45" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
@@ -3006,7 +3059,7 @@
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="26"/>
-      <c r="H45" s="32"/>
+      <c r="H45" s="31"/>
     </row>
     <row r="46" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
@@ -3015,18 +3068,18 @@
       <c r="B46" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="40" t="s">
         <v>228</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <v>5</v>
       </c>
       <c r="F46" s="24"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="32"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
@@ -3046,7 +3099,7 @@
       </c>
       <c r="F47" s="23"/>
       <c r="G47" s="26"/>
-      <c r="H47" s="32"/>
+      <c r="H47" s="31"/>
     </row>
     <row r="48" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
@@ -3068,7 +3121,7 @@
       <c r="G48" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="H48" s="32"/>
+      <c r="H48" s="31"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -3088,7 +3141,7 @@
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="26"/>
-      <c r="H49" s="32"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
@@ -3110,7 +3163,7 @@
       <c r="G50" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="32"/>
+      <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
@@ -3132,7 +3185,7 @@
       <c r="G51" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="H51" s="32"/>
+      <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
@@ -3154,7 +3207,7 @@
       <c r="G52" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="H52" s="32"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
@@ -3176,7 +3229,7 @@
       <c r="G53" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H53" s="32"/>
+      <c r="H53" s="31"/>
     </row>
     <row r="54" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
@@ -3198,7 +3251,7 @@
       <c r="G54" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="H54" s="32"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
@@ -3220,7 +3273,7 @@
       <c r="G55" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="H55" s="32"/>
+      <c r="H55" s="31"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
@@ -3242,7 +3295,7 @@
       <c r="G56" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="H56" s="32"/>
+      <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
@@ -3264,7 +3317,7 @@
       <c r="G57" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="H57" s="32" t="s">
+      <c r="H57" s="31" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3288,7 +3341,7 @@
       <c r="G58" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="H58" s="32" t="s">
+      <c r="H58" s="31" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3312,7 +3365,7 @@
       <c r="G59" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="H59" s="32" t="s">
+      <c r="H59" s="31" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3336,7 +3389,7 @@
       <c r="G60" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="H60" s="32" t="s">
+      <c r="H60" s="31" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3360,7 +3413,7 @@
       <c r="G61" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="H61" s="43" t="s">
+      <c r="H61" s="42" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3384,7 +3437,7 @@
       <c r="G62" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="H62" s="32" t="s">
+      <c r="H62" s="31" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3408,7 +3461,7 @@
       <c r="G63" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="H63" s="31" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3432,7 +3485,7 @@
       <c r="G64" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="H64" s="32" t="s">
+      <c r="H64" s="31" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3456,7 +3509,7 @@
       <c r="G65" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="H65" s="44">
+      <c r="H65" s="43">
         <v>44915</v>
       </c>
     </row>
@@ -3480,7 +3533,7 @@
       <c r="G66" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="H66" s="44" t="s">
+      <c r="H66" s="43" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3504,7 +3557,7 @@
       <c r="G67" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="H67" s="44" t="s">
+      <c r="H67" s="43" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3528,7 +3581,7 @@
       <c r="G68" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="H68" s="44" t="s">
+      <c r="H68" s="43" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3550,7 +3603,7 @@
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="26"/>
-      <c r="H69" s="44"/>
+      <c r="H69" s="43"/>
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
@@ -3570,7 +3623,7 @@
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="26"/>
-      <c r="H70" s="44" t="s">
+      <c r="H70" s="43" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3592,7 +3645,7 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="26"/>
-      <c r="H71" s="44" t="s">
+      <c r="H71" s="43" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3616,7 +3669,7 @@
       <c r="G72" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="H72" s="44" t="s">
+      <c r="H72" s="43" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3638,7 +3691,7 @@
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="26"/>
-      <c r="H73" s="44" t="s">
+      <c r="H73" s="43" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3660,7 +3713,7 @@
       </c>
       <c r="F74" s="23"/>
       <c r="G74" s="26"/>
-      <c r="H74" s="44" t="s">
+      <c r="H74" s="43" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3684,7 +3737,7 @@
       <c r="G75" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="H75" s="44" t="s">
+      <c r="H75" s="43" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3710,7 +3763,7 @@
       <c r="G76" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="H76" s="44" t="s">
+      <c r="H76" s="43" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3734,7 +3787,7 @@
       <c r="G77" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="H77" s="44" t="s">
+      <c r="H77" s="43" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3756,7 +3809,7 @@
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="26"/>
-      <c r="H78" s="44" t="s">
+      <c r="H78" s="43" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3778,7 +3831,7 @@
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="26"/>
-      <c r="H79" s="44" t="s">
+      <c r="H79" s="43" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3799,10 +3852,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="23"/>
-      <c r="G80" s="27" t="s">
+      <c r="G80" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="H80" s="44" t="s">
+      <c r="H80" s="43" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3822,7 +3875,7 @@
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
       <c r="G81" s="26"/>
-      <c r="H81" s="32"/>
+      <c r="H81" s="31"/>
     </row>
     <row r="82" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
@@ -3842,7 +3895,7 @@
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="26"/>
-      <c r="H82" s="32"/>
+      <c r="H82" s="31"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
@@ -3860,7 +3913,7 @@
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
       <c r="G83" s="26"/>
-      <c r="H83" s="32"/>
+      <c r="H83" s="31"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
@@ -3880,34 +3933,79 @@
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="26"/>
-      <c r="H84" s="32"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="19"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="19"/>
+      <c r="H84" s="31"/>
+    </row>
+    <row r="85" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="47">
+        <v>77</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" s="47">
+        <v>100</v>
+      </c>
+      <c r="F85" s="48"/>
+      <c r="G85" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="H85" s="50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="47">
+        <v>78</v>
+      </c>
+      <c r="B86" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" s="47">
+        <v>100</v>
+      </c>
+      <c r="F86" s="48"/>
+      <c r="G86" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="H86" s="50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="47">
+        <v>79</v>
+      </c>
+      <c r="B87" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="47">
+        <v>100</v>
+      </c>
+      <c r="F87" s="48"/>
+      <c r="G87" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="H87" s="50" t="s">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3985,10 +4083,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
@@ -4000,8 +4098,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
@@ -4013,10 +4111,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
@@ -4026,10 +4124,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="10"/>
@@ -4037,10 +4135,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="8"/>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -4048,10 +4146,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="10"/>
@@ -4059,10 +4157,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3122C76-5543-4A2A-85CD-8CA79B8D6DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E9B290-DFE3-4ACF-8488-49B8684D7CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="333">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1423,6 +1423,9 @@
     <t>正式套 待確認
 測試套 inbound/L7206/</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2121,7 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3870,7 +3873,7 @@
         <v>99</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
@@ -3908,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
